--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -78,36 +78,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -525,17 +525,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4672</v>
+        <v>1.4685</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0051</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>5.7</v>
+        <v>6.89</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -594,17 +594,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4712</v>
+        <v>1.4768</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0154</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>15.18</v>
+        <v>20.21</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -663,17 +663,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6405</v>
+        <v>1.6394</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0028</v>
+        <v>0.0021</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>3.49</v>
+        <v>2.64</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -732,17 +732,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9322</v>
+        <v>0.9283</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0061</v>
+        <v>0.0018</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>6.56</v>
+        <v>1.99</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -801,17 +801,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8863</v>
+        <v>1.8847</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0057</v>
+        <v>0.0048</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>4.56</v>
+        <v>3.88</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -870,17 +870,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2013</v>
+        <v>2.2009</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -939,17 +939,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9627</v>
+        <v>0.9619</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.007</v>
+        <v>0.0062</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1008,17 +1008,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9425</v>
+        <v>0.9411</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.007</v>
+        <v>0.0055</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1077,17 +1077,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7984</v>
+        <v>0.7983</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0172</v>
+        <v>0.0171</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1215,17 +1215,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4777</v>
+        <v>1.4789</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0051</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1284,17 +1284,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4712</v>
+        <v>1.4768</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0154</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>15.48</v>
+        <v>20.61</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1353,17 +1353,17 @@
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.6405</v>
+        <v>1.6394</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.0028</v>
+        <v>0.0021</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>3.63</v>
+        <v>2.74</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1422,17 +1422,17 @@
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4672</v>
+        <v>1.4685</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0051</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>5.38</v>
+        <v>6.5</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1491,17 +1491,17 @@
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9322</v>
+        <v>0.9283</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.0061</v>
+        <v>0.0018</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>6.34</v>
+        <v>1.92</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1560,17 +1560,17 @@
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8863</v>
+        <v>1.8847</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0057</v>
+        <v>0.0048</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>4.64</v>
+        <v>3.95</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1629,17 +1629,17 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.2013</v>
+        <v>2.2009</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1698,17 +1698,17 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9425</v>
+        <v>0.9411</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.007</v>
+        <v>0.0055</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1767,17 +1767,17 @@
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9627</v>
+        <v>0.9619</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.007</v>
+        <v>0.0062</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1905,17 +1905,17 @@
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.7984</v>
+        <v>0.7983</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.0172</v>
+        <v>0.0171</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1974,17 +1974,17 @@
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4777</v>
+        <v>1.4789</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0051</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2043,17 +2043,17 @@
         </is>
       </c>
       <c r="I24" s="11" t="n">
-        <v>1.0993</v>
+        <v>1.0956</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>0.0083</v>
+        <v>0.0048</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>83.98</v>
+        <v>49.46</v>
       </c>
       <c r="L24" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M24" s="13" t="inlineStr">
@@ -2095,10 +2095,10 @@
         <v>1.0099</v>
       </c>
       <c r="D25" s="12" t="n">
-        <v>8318.43</v>
+        <v>8677.6</v>
       </c>
       <c r="E25" s="12" t="n">
-        <v>9650.09</v>
+        <v>9649.49</v>
       </c>
       <c r="F25" s="12" t="n">
         <v>850.09</v>
@@ -2112,17 +2112,17 @@
         </is>
       </c>
       <c r="I25" s="11" t="n">
-        <v>1.1151</v>
+        <v>1.1143</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>0.0028</v>
+        <v>0.0021</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>25.79</v>
+        <v>19.96</v>
       </c>
       <c r="L25" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M25" s="13" t="inlineStr">
@@ -2181,17 +2181,17 @@
         </is>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.8778</v>
+        <v>0.878</v>
       </c>
       <c r="J26" s="14" t="n">
-        <v>0.0114</v>
+        <v>0.0116</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>66.83</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="L26" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M26" s="13" t="inlineStr">
@@ -2250,17 +2250,17 @@
         </is>
       </c>
       <c r="I27" s="11" t="n">
-        <v>0.9627</v>
+        <v>0.9619</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>0.007</v>
+        <v>0.0062</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>40.84</v>
+        <v>35.97</v>
       </c>
       <c r="L27" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M27" s="13" t="inlineStr">
@@ -2319,17 +2319,17 @@
         </is>
       </c>
       <c r="I28" s="11" t="n">
-        <v>1.661</v>
+        <v>1.6602</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>0.0067</v>
+        <v>0.0062</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>30.36</v>
+        <v>28.15</v>
       </c>
       <c r="L28" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M28" s="13" t="inlineStr">
@@ -2388,17 +2388,17 @@
         </is>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.7639</v>
+        <v>0.7592</v>
       </c>
       <c r="J29" s="14" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>19.02</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="K29" s="15" t="n">
+        <v>-1.77</v>
       </c>
       <c r="L29" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M29" s="13" t="inlineStr">
@@ -2457,17 +2457,17 @@
         </is>
       </c>
       <c r="I30" s="11" t="n">
-        <v>1.6233</v>
+        <v>1.6178</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>0.0083</v>
+        <v>0.0048</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>27.22</v>
+        <v>15.97</v>
       </c>
       <c r="L30" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M30" s="13" t="inlineStr">
@@ -2526,17 +2526,17 @@
         </is>
       </c>
       <c r="I31" s="11" t="n">
-        <v>0.5457</v>
+        <v>0.5441</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>0.0065</v>
+        <v>0.0035</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>20.82</v>
+        <v>11.3</v>
       </c>
       <c r="L31" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M31" s="13" t="inlineStr">
@@ -2595,17 +2595,17 @@
         </is>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1.6864</v>
+        <v>1.685</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0.0032</v>
+        <v>0.0024</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>9.42</v>
+        <v>6.97</v>
       </c>
       <c r="L32" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M32" s="13" t="inlineStr">
@@ -2733,17 +2733,17 @@
         </is>
       </c>
       <c r="I34" s="11" t="n">
-        <v>1.7646</v>
+        <v>1.7608</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0.0095</v>
+        <v>0.0073</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>20.14</v>
+        <v>15.53</v>
       </c>
       <c r="L34" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M34" s="13" t="inlineStr">
@@ -2802,17 +2802,17 @@
         </is>
       </c>
       <c r="I35" s="11" t="n">
-        <v>1.1482</v>
+        <v>1.149</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>0.0012</v>
+        <v>0.0018</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>2.12</v>
+        <v>3.42</v>
       </c>
       <c r="L35" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M35" s="13" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="L37" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M37" s="13" t="inlineStr">
@@ -3078,17 +3078,17 @@
         </is>
       </c>
       <c r="I39" s="11" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0059</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>11.66</v>
+        <v>7.18</v>
       </c>
       <c r="L39" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M39" s="13" t="inlineStr">
@@ -3147,17 +3147,17 @@
         </is>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.1172</v>
+        <v>1.1164</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>0.0045</v>
+        <v>0.0038</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>4.5</v>
+        <v>3.78</v>
       </c>
       <c r="L40" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M40" s="13" t="inlineStr">
@@ -3216,17 +3216,17 @@
         </is>
       </c>
       <c r="I41" s="11" t="n">
-        <v>1.2546</v>
+        <v>1.2536</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>-0.0014</v>
+        <v>-0.0022</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>-1.25</v>
+        <v>-1.98</v>
       </c>
       <c r="L41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:30</t>
         </is>
       </c>
       <c r="M41" s="13" t="inlineStr">
@@ -3285,17 +3285,17 @@
         </is>
       </c>
       <c r="I42" s="11" t="n">
-        <v>1.0032</v>
+        <v>0.9991</v>
       </c>
       <c r="J42" s="14" t="n">
-        <v>0.0053</v>
+        <v>0.0012</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>2.63</v>
+        <v>0.6</v>
       </c>
       <c r="L42" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M42" s="13" t="inlineStr">
@@ -3354,17 +3354,17 @@
         </is>
       </c>
       <c r="I43" s="11" t="n">
-        <v>0.9609</v>
+        <v>0.9589</v>
       </c>
       <c r="J43" s="14" t="n">
-        <v>0.0095</v>
+        <v>0.0073</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>4.43</v>
+        <v>3.45</v>
       </c>
       <c r="L43" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M43" s="13" t="inlineStr">
@@ -3423,17 +3423,17 @@
         </is>
       </c>
       <c r="I44" s="11" t="n">
-        <v>1.3573</v>
+        <v>1.3562</v>
       </c>
       <c r="J44" s="14" t="n">
-        <v>0.0037</v>
+        <v>0.0028</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="L44" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M44" s="13" t="inlineStr">
@@ -3492,17 +3492,17 @@
         </is>
       </c>
       <c r="I45" s="11" t="n">
-        <v>1.332</v>
+        <v>1.3312</v>
       </c>
       <c r="J45" s="14" t="n">
-        <v>0.0068</v>
+        <v>0.0062</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>2.93</v>
+        <v>2.67</v>
       </c>
       <c r="L45" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M45" s="13" t="inlineStr">
@@ -3561,17 +3561,17 @@
         </is>
       </c>
       <c r="I46" s="11" t="n">
-        <v>1.5366</v>
+        <v>1.5431</v>
       </c>
       <c r="J46" s="14" t="n">
-        <v>0.0114</v>
+        <v>0.0157</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>4.77</v>
+        <v>6.56</v>
       </c>
       <c r="L46" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M46" s="13" t="inlineStr">
@@ -3630,17 +3630,17 @@
         </is>
       </c>
       <c r="I47" s="11" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.8754999999999999</v>
       </c>
       <c r="J47" s="14" t="n">
-        <v>0.0083</v>
+        <v>0.0048</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>1.99</v>
+        <v>1.16</v>
       </c>
       <c r="L47" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M47" s="13" t="inlineStr">
@@ -3670,6 +3670,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -30,7 +30,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="00000000"/>
+      <color rgb="00333333"/>
       <sz val="10"/>
     </font>
     <font>
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2C300"/>
+        <fgColor rgb="00F0DC5A"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,7 +59,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9501A"/>
+        <fgColor rgb="00FF8361"/>
       </patternFill>
     </fill>
     <fill>
@@ -407,6 +407,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="14.4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -517,25 +535,25 @@
         <v>34.96</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.461</v>
+        <v>1.468</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4685</v>
+        <v>1.478</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.0068</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>6.89</v>
+        <v>9.19</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -586,25 +604,25 @@
         <v>95.05</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4543</v>
+        <v>1.4844</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4768</v>
+        <v>1.4902</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0154</v>
+        <v>0.0039</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>20.21</v>
+        <v>5.21</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 14:32</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -655,25 +673,25 @@
         <v>-15.02</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.636</v>
+        <v>1.639</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6394</v>
+        <v>1.6455</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0021</v>
+        <v>0.004</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>2.64</v>
+        <v>5.05</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -724,25 +742,25 @@
         <v>-9.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9266</v>
+        <v>0.9282</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9283</v>
+        <v>0.9331</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0018</v>
+        <v>0.0053</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>1.99</v>
+        <v>5.74</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -793,25 +811,25 @@
         <v>38.44</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8756</v>
+        <v>1.8845</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8847</v>
+        <v>1.8956</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0048</v>
+        <v>0.0059</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>3.88</v>
+        <v>4.73</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -862,25 +880,25 @@
         <v>27.37</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1917</v>
+        <v>2.2008</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2009</v>
+        <v>2.2123</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0042</v>
+        <v>0.0052</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>3.12</v>
+        <v>3.9</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -931,25 +949,25 @@
         <v>-0.95</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.956</v>
+        <v>0.9614</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9619</v>
+        <v>0.9641</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0062</v>
+        <v>0.0029</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>1.47</v>
+        <v>0.67</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1000,25 +1018,25 @@
         <v>-10.1</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9359</v>
+        <v>0.9377</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9411</v>
+        <v>0.9423</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0049</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1069,25 +1087,25 @@
         <v>24.28</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7849</v>
+        <v>0.7984</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7983</v>
+        <v>0.7987</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0171</v>
+        <v>0.0004</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>2.85</v>
+        <v>0.06</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:29</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1138,25 +1156,25 @@
         <v>2.54</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.33</v>
+        <v>1.348</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3459</v>
+        <v>1.3568</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.012</v>
+        <v>0.0066</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>0.99</v>
+        <v>0.55</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1207,25 +1225,25 @@
         <v>-1.41</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4714</v>
+        <v>1.4788</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4789</v>
+        <v>1.4889</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.0068</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1276,25 +1294,25 @@
         <v>94.26000000000001</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.4543</v>
+        <v>1.4844</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4768</v>
+        <v>1.4902</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0154</v>
+        <v>0.0039</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>20.61</v>
+        <v>5.31</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 14:32</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1345,25 +1363,25 @@
         <v>-21.24</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.636</v>
+        <v>1.639</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.6394</v>
+        <v>1.6455</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.0021</v>
+        <v>0.004</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>2.74</v>
+        <v>5.24</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1414,25 +1432,25 @@
         <v>35.51</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.461</v>
+        <v>1.468</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4685</v>
+        <v>1.478</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.0068</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>6.5</v>
+        <v>8.67</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1483,25 +1501,25 @@
         <v>-10.89</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9266</v>
+        <v>0.9282</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9283</v>
+        <v>0.9331</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.0018</v>
+        <v>0.0053</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>1.92</v>
+        <v>5.55</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1552,25 +1570,25 @@
         <v>39.55</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.8756</v>
+        <v>1.8845</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8847</v>
+        <v>1.8956</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0048</v>
+        <v>0.0059</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>3.95</v>
+        <v>4.82</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1621,25 +1639,25 @@
         <v>25.41</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2.1917</v>
+        <v>2.2008</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.2009</v>
+        <v>2.2123</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.0042</v>
+        <v>0.0052</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1690,25 +1708,25 @@
         <v>-10.57</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9359</v>
+        <v>0.9377</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9411</v>
+        <v>0.9423</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0049</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1759,25 +1777,25 @@
         <v>-0.35</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.956</v>
+        <v>0.9614</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9619</v>
+        <v>0.9641</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0062</v>
+        <v>0.0029</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>1.27</v>
+        <v>0.58</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1828,25 +1846,25 @@
         <v>6.54</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.33</v>
+        <v>1.348</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3459</v>
+        <v>1.3568</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.012</v>
+        <v>0.0066</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>2.26</v>
+        <v>1.25</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1897,25 +1915,25 @@
         <v>24.28</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.7849</v>
+        <v>0.7984</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.7983</v>
+        <v>0.7987</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.0171</v>
+        <v>0.0004</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>2.85</v>
+        <v>0.06</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:29</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1966,25 +1984,25 @@
         <v>-1.41</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1.4714</v>
+        <v>1.4788</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4789</v>
+        <v>1.4889</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.0068</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2035,25 +2053,25 @@
         <v>373.74</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>1.0903</v>
+        <v>1.0954</v>
       </c>
       <c r="H24" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I24" s="11" t="n">
-        <v>1.0956</v>
+        <v>1.1021</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>0.0048</v>
+        <v>0.0061</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>49.46</v>
+        <v>62.52</v>
       </c>
       <c r="L24" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M24" s="13" t="inlineStr">
@@ -2104,25 +2122,25 @@
         <v>850.09</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>1.112</v>
+        <v>1.114</v>
       </c>
       <c r="H25" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I25" s="11" t="n">
-        <v>1.1143</v>
+        <v>1.1184</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>0.0021</v>
+        <v>0.004</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>19.96</v>
+        <v>38.18</v>
       </c>
       <c r="L25" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M25" s="13" t="inlineStr">
@@ -2173,25 +2191,25 @@
         <v>1058.56</v>
       </c>
       <c r="G26" s="11" t="n">
-        <v>0.8679</v>
+        <v>0.8778</v>
       </c>
       <c r="H26" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.878</v>
+        <v>0.8781</v>
       </c>
       <c r="J26" s="14" t="n">
-        <v>0.0116</v>
+        <v>0.0004</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>68.18000000000001</v>
+        <v>2.03</v>
       </c>
       <c r="L26" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M26" s="13" t="inlineStr">
@@ -2242,25 +2260,25 @@
         <v>627.97</v>
       </c>
       <c r="G27" s="11" t="n">
-        <v>0.956</v>
+        <v>0.9614</v>
       </c>
       <c r="H27" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I27" s="11" t="n">
-        <v>0.9619</v>
+        <v>0.9641</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>0.0062</v>
+        <v>0.0029</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>35.97</v>
+        <v>16.46</v>
       </c>
       <c r="L27" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M27" s="13" t="inlineStr">
@@ -2311,25 +2329,25 @@
         <v>954.1900000000001</v>
       </c>
       <c r="G28" s="11" t="n">
-        <v>1.65</v>
+        <v>1.659</v>
       </c>
       <c r="H28" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I28" s="11" t="n">
-        <v>1.6602</v>
+        <v>1.6713</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>0.0062</v>
+        <v>0.0074</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>28.15</v>
+        <v>33.95</v>
       </c>
       <c r="L28" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 13:47</t>
         </is>
       </c>
       <c r="M28" s="13" t="inlineStr">
@@ -2380,25 +2398,25 @@
         <v>160.07</v>
       </c>
       <c r="G29" s="11" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7592</v>
       </c>
       <c r="H29" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.7592</v>
+        <v>0.7591</v>
       </c>
       <c r="J29" s="14" t="n">
-        <v>-0.0005</v>
+        <v>-0.0002</v>
       </c>
       <c r="K29" s="15" t="n">
-        <v>-1.77</v>
+        <v>-0.44</v>
       </c>
       <c r="L29" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M29" s="13" t="inlineStr">
@@ -2449,25 +2467,25 @@
         <v>583.51</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>1.61</v>
+        <v>1.616</v>
       </c>
       <c r="H30" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I30" s="11" t="n">
-        <v>1.6178</v>
+        <v>1.6258</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>0.0048</v>
+        <v>0.0061</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>15.97</v>
+        <v>20.06</v>
       </c>
       <c r="L30" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M30" s="13" t="inlineStr">
@@ -2518,25 +2536,25 @@
         <v>25.96</v>
       </c>
       <c r="G31" s="11" t="n">
-        <v>0.5422</v>
+        <v>0.5438</v>
       </c>
       <c r="H31" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I31" s="11" t="n">
-        <v>0.5441</v>
+        <v>0.5484</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>0.0035</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>11.3</v>
+        <v>27.37</v>
       </c>
       <c r="L31" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:29</t>
         </is>
       </c>
       <c r="M31" s="13" t="inlineStr">
@@ -2587,25 +2605,25 @@
         <v>140.07</v>
       </c>
       <c r="G32" s="11" t="n">
-        <v>1.681</v>
+        <v>1.685</v>
       </c>
       <c r="H32" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1.685</v>
+        <v>1.6944</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0.0024</v>
+        <v>0.0056</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>6.97</v>
+        <v>16.39</v>
       </c>
       <c r="L32" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M32" s="13" t="inlineStr">
@@ -2725,25 +2743,25 @@
         <v>520.48</v>
       </c>
       <c r="G34" s="11" t="n">
-        <v>1.748</v>
+        <v>1.7606</v>
       </c>
       <c r="H34" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I34" s="11" t="n">
-        <v>1.7608</v>
+        <v>1.7721</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0.0073</v>
+        <v>0.0066</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>15.53</v>
+        <v>13.95</v>
       </c>
       <c r="L34" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M34" s="13" t="inlineStr">
@@ -2794,25 +2812,25 @@
         <v>269.53</v>
       </c>
       <c r="G35" s="11" t="n">
-        <v>1.1469</v>
+        <v>1.1518</v>
       </c>
       <c r="H35" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I35" s="11" t="n">
-        <v>1.149</v>
+        <v>1.1536</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>3.42</v>
+        <v>2.93</v>
       </c>
       <c r="L35" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M35" s="13" t="inlineStr">
@@ -2863,25 +2881,25 @@
         <v>173.18</v>
       </c>
       <c r="G36" s="11" t="n">
-        <v>1.26</v>
+        <v>1.273</v>
       </c>
       <c r="H36" s="13" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I36" s="11" t="n">
-        <v>1.2699</v>
+        <v>1.2766</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>0.0078</v>
+        <v>0.0028</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>13.93</v>
+        <v>5.07</v>
       </c>
       <c r="L36" s="13" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M36" s="13" t="inlineStr">
@@ -2932,25 +2950,25 @@
         <v>175.93</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>1.028</v>
+        <v>1.034</v>
       </c>
       <c r="H37" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I37" s="11" t="n">
-        <v>1.0343</v>
+        <v>1.0403</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>0.0062</v>
+        <v>0.0061</v>
       </c>
       <c r="K37" s="8" t="n">
         <v>8.43</v>
       </c>
       <c r="L37" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M37" s="13" t="inlineStr">
@@ -3001,25 +3019,25 @@
         <v>-319.56</v>
       </c>
       <c r="G38" s="11" t="n">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
       <c r="H38" s="13" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I38" s="11" t="n">
-        <v>0.382</v>
+        <v>0.3925</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>0.0106</v>
+        <v>0.0038</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>9.32</v>
+        <v>3.49</v>
       </c>
       <c r="L38" s="13" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M38" s="13" t="inlineStr">
@@ -3070,25 +3088,25 @@
         <v>14.26</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>0.8122</v>
+        <v>0.8169</v>
       </c>
       <c r="H39" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I39" s="11" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8183</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>0.0059</v>
+        <v>0.0017</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>7.18</v>
+        <v>2.09</v>
       </c>
       <c r="L39" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M39" s="13" t="inlineStr">
@@ -3139,25 +3157,25 @@
         <v>201.36</v>
       </c>
       <c r="G40" s="11" t="n">
-        <v>1.1122</v>
+        <v>1.1162</v>
       </c>
       <c r="H40" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.1164</v>
+        <v>1.1266</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>0.0038</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>3.78</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="L40" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:29</t>
         </is>
       </c>
       <c r="M40" s="13" t="inlineStr">
@@ -3208,25 +3226,25 @@
         <v>121.86</v>
       </c>
       <c r="G41" s="11" t="n">
-        <v>1.2563</v>
+        <v>1.2536</v>
       </c>
       <c r="H41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I41" s="11" t="n">
-        <v>1.2536</v>
+        <v>1.2462</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>-0.0022</v>
+        <v>-0.0059</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>-1.98</v>
+        <v>-5.43</v>
       </c>
       <c r="L41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:30</t>
+          <t>2019-11-05 14:31</t>
         </is>
       </c>
       <c r="M41" s="13" t="inlineStr">
@@ -3277,25 +3295,25 @@
         <v>95.08</v>
       </c>
       <c r="G42" s="11" t="n">
-        <v>0.9979</v>
+        <v>0.999</v>
       </c>
       <c r="H42" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I42" s="11" t="n">
-        <v>0.9991</v>
+        <v>1.0113</v>
       </c>
       <c r="J42" s="14" t="n">
-        <v>0.0012</v>
+        <v>0.0124</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="L42" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M42" s="13" t="inlineStr">
@@ -3346,25 +3364,25 @@
         <v>68.87</v>
       </c>
       <c r="G43" s="11" t="n">
-        <v>0.9519</v>
+        <v>0.9578</v>
       </c>
       <c r="H43" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I43" s="11" t="n">
-        <v>0.9589</v>
+        <v>0.9641</v>
       </c>
       <c r="J43" s="14" t="n">
-        <v>0.0073</v>
+        <v>0.0066</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L43" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M43" s="13" t="inlineStr">
@@ -3415,25 +3433,25 @@
         <v>50.4</v>
       </c>
       <c r="G44" s="11" t="n">
-        <v>1.3524</v>
+        <v>1.3573</v>
       </c>
       <c r="H44" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I44" s="11" t="n">
-        <v>1.3562</v>
+        <v>1.3665</v>
       </c>
       <c r="J44" s="14" t="n">
-        <v>0.0028</v>
+        <v>0.0068</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>1.27</v>
+        <v>3.06</v>
       </c>
       <c r="L44" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M44" s="13" t="inlineStr">
@@ -3484,25 +3502,25 @@
         <v>30.78</v>
       </c>
       <c r="G45" s="11" t="n">
-        <v>1.323</v>
+        <v>1.331</v>
       </c>
       <c r="H45" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I45" s="11" t="n">
-        <v>1.3312</v>
+        <v>1.3387</v>
       </c>
       <c r="J45" s="14" t="n">
-        <v>0.0062</v>
+        <v>0.0058</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>2.67</v>
+        <v>2.51</v>
       </c>
       <c r="L45" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M45" s="13" t="inlineStr">
@@ -3553,25 +3571,25 @@
         <v>18.55</v>
       </c>
       <c r="G46" s="11" t="n">
-        <v>1.5193</v>
+        <v>1.5413</v>
       </c>
       <c r="H46" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I46" s="11" t="n">
-        <v>1.5431</v>
+        <v>1.5481</v>
       </c>
       <c r="J46" s="14" t="n">
-        <v>0.0157</v>
+        <v>0.0044</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>6.56</v>
+        <v>1.87</v>
       </c>
       <c r="L46" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 14:31</t>
         </is>
       </c>
       <c r="M46" s="13" t="inlineStr">
@@ -3622,25 +3640,25 @@
         <v>11.68</v>
       </c>
       <c r="G47" s="11" t="n">
-        <v>0.8713</v>
+        <v>0.8753</v>
       </c>
       <c r="H47" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I47" s="11" t="n">
-        <v>0.8754999999999999</v>
+        <v>0.8806</v>
       </c>
       <c r="J47" s="14" t="n">
-        <v>0.0048</v>
+        <v>0.0061</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="L47" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 14:30</t>
         </is>
       </c>
       <c r="M47" s="13" t="inlineStr">

--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009933"/>
+        <fgColor rgb="00FE0002"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DD2200"/>
+        <fgColor rgb="00009900"/>
       </patternFill>
     </fill>
     <fill>
@@ -535,25 +535,25 @@
         <v>47.68</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.478</v>
+        <v>1.475</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4755</v>
+        <v>1.4774</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-2.37</v>
+        <v>2.28</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -604,25 +604,25 @@
         <v>120.02</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4923</v>
+        <v>1.4821</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4926</v>
+        <v>1.4791</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0002</v>
+        <v>-0.002</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>0.27</v>
+        <v>-2.69</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -673,25 +673,25 @@
         <v>-16.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.646</v>
+        <v>1.635</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6346</v>
+        <v>1.6431</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0069</v>
+        <v>0.0049</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-9.16</v>
+        <v>6.51</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -742,25 +742,25 @@
         <v>-10.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9338</v>
+        <v>0.9257</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9254</v>
+        <v>0.9319</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.0067</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-10.22</v>
+        <v>7.54</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -811,25 +811,25 @@
         <v>42.01</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8968</v>
+        <v>1.8846</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8844</v>
+        <v>1.8932</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0066</v>
+        <v>0.0046</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-5.51</v>
+        <v>3.82</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -880,25 +880,25 @@
         <v>29.57</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2129</v>
+        <v>2.199</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.199</v>
+        <v>2.2071</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0063</v>
+        <v>0.0037</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-4.94</v>
+        <v>2.88</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -949,25 +949,25 @@
         <v>-0.34</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9644</v>
+        <v>0.9593</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.968</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0054</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-1.48</v>
+        <v>2.47</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1018,25 +1018,25 @@
         <v>-9.609999999999999</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9422</v>
+        <v>0.9382</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9384</v>
+        <v>0.9397</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0041</v>
+        <v>0.0016</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-0.82</v>
+        <v>0.32</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1087,25 +1087,25 @@
         <v>26.43</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7992</v>
+        <v>0.795</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.795</v>
+        <v>0.8053</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0052</v>
+        <v>0.013</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-0.89</v>
+        <v>2.19</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1156,25 +1156,25 @@
         <v>3.97</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.359</v>
+        <v>1.353</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3565</v>
+        <v>1.3576</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0018</v>
+        <v>0.0034</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-0.16</v>
+        <v>0.29</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1225,25 +1225,25 @@
         <v>-1.05</v>
       </c>
       <c r="G12" s="4" t="n">
+        <v>1.4862</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n">
         <v>1.4886</v>
       </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>2019-11-05</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>1.4861</v>
-      </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1294,25 +1294,25 @@
         <v>-22.4</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.646</v>
+        <v>1.635</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.6346</v>
+        <v>1.6431</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0069</v>
+        <v>0.0049</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-9.5</v>
+        <v>6.75</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1363,25 +1363,25 @@
         <v>119.72</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.4923</v>
+        <v>1.4821</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.4926</v>
+        <v>1.4791</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.0002</v>
+        <v>-0.002</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>0.27</v>
+        <v>-2.75</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1432,25 +1432,25 @@
         <v>47.51</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.478</v>
+        <v>1.475</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4755</v>
+        <v>1.4774</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-2.24</v>
+        <v>2.15</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1501,25 +1501,25 @@
         <v>-12.34</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9338</v>
+        <v>0.9257</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9254</v>
+        <v>0.9319</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.0067</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-9.890000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1570,25 +1570,25 @@
         <v>43.18</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.8968</v>
+        <v>1.8846</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8844</v>
+        <v>1.8932</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>-0.0066</v>
+        <v>0.0046</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-5.61</v>
+        <v>3.89</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1639,25 +1639,25 @@
         <v>27.36</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2.2129</v>
+        <v>2.199</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.199</v>
+        <v>2.2071</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>-0.0063</v>
+        <v>0.0037</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-4.45</v>
+        <v>2.6</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1708,25 +1708,25 @@
         <v>0.14</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9644</v>
+        <v>0.9593</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.968</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>-0.0054</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>-1.3</v>
+        <v>2.17</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1777,25 +1777,25 @@
         <v>-10.05</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.9422</v>
+        <v>0.9382</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9384</v>
+        <v>0.9397</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>-0.0041</v>
+        <v>0.0016</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-0.86</v>
+        <v>0.34</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1846,25 +1846,25 @@
         <v>9.81</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.359</v>
+        <v>1.353</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3565</v>
+        <v>1.3576</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>-0.0018</v>
+        <v>0.0034</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-0.36</v>
+        <v>0.65</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1915,25 +1915,25 @@
         <v>26.43</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.7992</v>
+        <v>0.795</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.795</v>
+        <v>0.8053</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>-0.0052</v>
+        <v>0.013</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-0.89</v>
+        <v>2.19</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1984,25 +1984,25 @@
         <v>-1.05</v>
       </c>
       <c r="G23" s="4" t="n">
+        <v>1.4862</v>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="n">
         <v>1.4886</v>
       </c>
-      <c r="H23" s="6" t="inlineStr">
-        <is>
-          <t>2019-11-05</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>1.4861</v>
-      </c>
       <c r="J23" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2053,25 +2053,25 @@
         <v>394.59</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>1.1028</v>
+        <v>1.0925</v>
       </c>
       <c r="H24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I24" s="12" t="n">
-        <v>1.0922</v>
+        <v>1.0992</v>
       </c>
       <c r="J24" s="15" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0062</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-102.79</v>
+        <v>64.97</v>
       </c>
       <c r="L24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M24" s="14" t="inlineStr">
@@ -2122,25 +2122,25 @@
         <v>858.16</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>1.119</v>
+        <v>1.113</v>
       </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I25" s="12" t="n">
-        <v>1.1112</v>
+        <v>1.1185</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>-0.0069</v>
+        <v>0.0049</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-67.69</v>
+        <v>47.73</v>
       </c>
       <c r="L25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M25" s="14" t="inlineStr">
@@ -2191,25 +2191,25 @@
         <v>1101.09</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>0.8784</v>
+        <v>0.8742</v>
       </c>
       <c r="H26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I26" s="12" t="n">
-        <v>0.8742</v>
+        <v>0.8842</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>-0.0048</v>
+        <v>0.0115</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-28.35</v>
+        <v>67.5</v>
       </c>
       <c r="L26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M26" s="14" t="inlineStr">
@@ -2260,25 +2260,25 @@
         <v>648.09</v>
       </c>
       <c r="G27" s="12" t="n">
-        <v>0.9644</v>
+        <v>0.9593</v>
       </c>
       <c r="H27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I27" s="12" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.968</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>-0.0054</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-31.7</v>
+        <v>53.04</v>
       </c>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M27" s="14" t="inlineStr">
@@ -2329,25 +2329,25 @@
         <v>987.3099999999999</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.67</v>
+        <v>1.662</v>
       </c>
       <c r="H28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I28" s="12" t="n">
-        <v>1.6629</v>
+        <v>1.6655</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>-0.0043</v>
+        <v>0.0021</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-19.6</v>
+        <v>9.66</v>
       </c>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M28" s="14" t="inlineStr">
@@ -2398,25 +2398,25 @@
         <v>113.62</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>0.7598</v>
+        <v>0.7491</v>
       </c>
       <c r="H29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I29" s="12" t="n">
-        <v>0.7487</v>
+        <v>0.7551</v>
       </c>
       <c r="J29" s="15" t="n">
-        <v>-0.0146</v>
+        <v>0.008</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-49.1</v>
+        <v>26.54</v>
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M29" s="14" t="inlineStr">
@@ -2467,25 +2467,25 @@
         <v>585.55</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>1.627</v>
+        <v>1.611</v>
       </c>
       <c r="H30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I30" s="12" t="n">
-        <v>1.6114</v>
+        <v>1.6228</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0073</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-31.93</v>
+        <v>24.15</v>
       </c>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M30" s="14" t="inlineStr">
@@ -2536,25 +2536,25 @@
         <v>55.71</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>0.5481</v>
+        <v>0.5472</v>
       </c>
       <c r="H31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I31" s="12" t="n">
-        <v>0.5473</v>
+        <v>0.548</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>-0.0015</v>
+        <v>0.0015</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-4.76</v>
+        <v>4.76</v>
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M31" s="14" t="inlineStr">
@@ -2605,25 +2605,25 @@
         <v>160.99</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>1.695</v>
+        <v>1.693</v>
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I32" s="12" t="n">
-        <v>1.6929</v>
+        <v>1.6945</v>
       </c>
       <c r="J32" s="15" t="n">
-        <v>-0.0012</v>
+        <v>0.0009</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-3.66</v>
+        <v>2.62</v>
       </c>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M32" s="14" t="inlineStr">
@@ -2687,7 +2687,7 @@
       <c r="J33" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="9" t="n">
+      <c r="K33" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="14" t="inlineStr">
@@ -2743,25 +2743,25 @@
         <v>539.16</v>
       </c>
       <c r="G34" s="12" t="n">
-        <v>1.7736</v>
+        <v>1.7634</v>
       </c>
       <c r="H34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I34" s="12" t="n">
-        <v>1.7635</v>
+        <v>1.7793</v>
       </c>
       <c r="J34" s="15" t="n">
-        <v>-0.0057</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-12.25</v>
+        <v>19.29</v>
       </c>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M34" s="14" t="inlineStr">
@@ -2812,25 +2812,25 @@
         <v>283.23</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>1.1574</v>
+        <v>1.1553</v>
       </c>
       <c r="H35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I35" s="12" t="n">
-        <v>1.156</v>
+        <v>1.1565</v>
       </c>
       <c r="J35" s="15" t="n">
-        <v>-0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>-2.28</v>
+        <v>1.96</v>
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M35" s="14" t="inlineStr">
@@ -2881,20 +2881,20 @@
         <v>237.92</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>1.313</v>
+        <v>1.306</v>
       </c>
       <c r="H36" s="14" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I36" s="12" t="n">
-        <v>1.3129</v>
+        <v>1.3059</v>
       </c>
       <c r="J36" s="15" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="9" t="n">
         <v>-0.14</v>
       </c>
       <c r="L36" s="14" t="inlineStr">
@@ -2950,25 +2950,25 @@
         <v>187.98</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>1.04</v>
+        <v>1.037</v>
       </c>
       <c r="H37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I37" s="12" t="n">
-        <v>1.0376</v>
+        <v>1.0385</v>
       </c>
       <c r="J37" s="15" t="n">
-        <v>-0.0023</v>
+        <v>0.0014</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-3.21</v>
+        <v>2.01</v>
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M37" s="14" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H38" s="14" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I38" s="12" t="n">
@@ -3032,7 +3032,7 @@
       <c r="J38" s="15" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="9" t="n">
         <v>-0.34</v>
       </c>
       <c r="L38" s="14" t="inlineStr">
@@ -3088,25 +3088,25 @@
         <v>14.41</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.8191000000000001</v>
+        <v>0.8123</v>
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I39" s="12" t="n">
-        <v>0.8123</v>
+        <v>0.8167</v>
       </c>
       <c r="J39" s="15" t="n">
-        <v>-0.008399999999999999</v>
+        <v>0.0054</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-10.17</v>
+        <v>6.58</v>
       </c>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M39" s="14" t="inlineStr">
@@ -3157,25 +3157,25 @@
         <v>211.18</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>1.1261</v>
+        <v>1.1231</v>
       </c>
       <c r="H40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I40" s="12" t="n">
-        <v>1.123</v>
+        <v>1.1259</v>
       </c>
       <c r="J40" s="15" t="n">
-        <v>-0.0028</v>
+        <v>0.0025</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-2.79</v>
+        <v>2.52</v>
       </c>
       <c r="L40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M40" s="14" t="inlineStr">
@@ -3234,17 +3234,17 @@
         </is>
       </c>
       <c r="I41" s="12" t="n">
-        <v>1.2341</v>
+        <v>1.235</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>3.08</v>
+        <v>0.0042</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>3.74</v>
       </c>
       <c r="L41" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 02:29</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M41" s="14" t="inlineStr">
@@ -3295,25 +3295,25 @@
         <v>97.12</v>
       </c>
       <c r="G42" s="12" t="n">
-        <v>1.0119</v>
+        <v>1.002</v>
       </c>
       <c r="H42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I42" s="12" t="n">
-        <v>1.0013</v>
+        <v>1.008</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>-0.0105</v>
+        <v>0.006</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>-5.26</v>
+        <v>2.98</v>
       </c>
       <c r="L42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M42" s="14" t="inlineStr">
@@ -3364,25 +3364,25 @@
         <v>72.31999999999999</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>0.9645</v>
+        <v>0.9589</v>
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I43" s="12" t="n">
-        <v>0.959</v>
+        <v>0.9684</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>-0.0057</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-2.71</v>
+        <v>4.68</v>
       </c>
       <c r="L43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M43" s="14" t="inlineStr">
@@ -3433,25 +3433,25 @@
         <v>54.29</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>1.3664</v>
+        <v>1.3641</v>
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I44" s="12" t="n">
-        <v>1.3651</v>
+        <v>1.3665</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>-0.0009</v>
+        <v>0.0017</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-0.43</v>
+        <v>0.8</v>
       </c>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:55</t>
         </is>
       </c>
       <c r="M44" s="14" t="inlineStr">
@@ -3502,25 +3502,25 @@
         <v>34.36</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>1.339</v>
+        <v>1.334</v>
       </c>
       <c r="H45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I45" s="12" t="n">
-        <v>1.3333</v>
+        <v>1.3378</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>-0.0043</v>
+        <v>0.0029</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>-1.86</v>
+        <v>1.24</v>
       </c>
       <c r="L45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M45" s="14" t="inlineStr">
@@ -3571,25 +3571,25 @@
         <v>25.32</v>
       </c>
       <c r="G46" s="12" t="n">
-        <v>1.5482</v>
+        <v>1.5439</v>
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I46" s="12" t="n">
-        <v>1.5485</v>
+        <v>1.5406</v>
       </c>
       <c r="J46" s="15" t="n">
-        <v>0.0002</v>
+        <v>-0.0022</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>0.08</v>
+        <v>-0.91</v>
       </c>
       <c r="L46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:57</t>
         </is>
       </c>
       <c r="M46" s="14" t="inlineStr">
@@ -3640,25 +3640,25 @@
         <v>12.12</v>
       </c>
       <c r="G47" s="12" t="n">
-        <v>0.8812</v>
+        <v>0.8729</v>
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I47" s="12" t="n">
-        <v>0.8727</v>
+        <v>0.879</v>
       </c>
       <c r="J47" s="15" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-2.35</v>
+        <v>1.68</v>
       </c>
       <c r="L47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:56</t>
         </is>
       </c>
       <c r="M47" s="14" t="inlineStr">

--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FE0002"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009900"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -539,21 +539,21 @@
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4774</v>
+        <v>1.4757</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>2.28</v>
+        <v>0.66</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -598,31 +598,31 @@
         <v>898.04</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1330.99</v>
+        <v>1340.68</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>120.02</v>
+        <v>129.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4821</v>
+        <v>1.4929</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4791</v>
+        <v>1.486</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.002</v>
+        <v>-0.0046</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>-2.69</v>
+        <v>-6.2</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -667,31 +667,31 @@
         <v>803.24</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1313.3</v>
+        <v>1317.31</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-16.15</v>
+        <v>-12.14</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.635</v>
+        <v>1.64</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6431</v>
+        <v>1.6461</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0049</v>
+        <v>0.0037</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>6.51</v>
+        <v>4.9</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -736,31 +736,31 @@
         <v>1216.78</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1126.37</v>
+        <v>1132.58</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.75</v>
+        <v>-4.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9257</v>
+        <v>0.9308</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9319</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0067</v>
+        <v>0.0046</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>7.54</v>
+        <v>5.11</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -805,31 +805,31 @@
         <v>444.49</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>837.6900000000001</v>
+        <v>841.24</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42.01</v>
+        <v>45.56</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8846</v>
+        <v>1.8926</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8932</v>
+        <v>1.8998</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0046</v>
+        <v>0.0038</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>3.82</v>
+        <v>3.2</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -874,31 +874,31 @@
         <v>355.05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>780.75</v>
+        <v>783.52</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29.57</v>
+        <v>32.34</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.199</v>
+        <v>2.2068</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2071</v>
+        <v>2.215</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>0.0037</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -943,31 +943,31 @@
         <v>284.05</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272.49</v>
+        <v>274.85</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.34</v>
+        <v>2.02</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9593</v>
+        <v>0.9676</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.968</v>
+        <v>0.9721</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0047</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>2.47</v>
+        <v>1.28</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1012,31 +1012,31 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201.61</v>
+        <v>202.25</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-9.609999999999999</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9382</v>
+        <v>0.9412</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9397</v>
+        <v>0.9434</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0024</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1081,31 +1081,31 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169.13</v>
+        <v>171.13</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26.43</v>
+        <v>28.43</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.795</v>
+        <v>0.8044</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8053</v>
+        <v>0.8047</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.013</v>
+        <v>0.0004</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>2.19</v>
+        <v>0.06</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1150,31 +1150,31 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84.01000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.97</v>
+        <v>4.34</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.353</v>
+        <v>1.359</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3576</v>
+        <v>1.3585</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>0.29</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>-0.03</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1219,31 +1219,31 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.03</v>
+        <v>36.01</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.05</v>
+        <v>-1.07</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4862</v>
+        <v>1.4856</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4886</v>
+        <v>1.4863</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1275,64 +1275,64 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>1.6619</v>
+        <v>1.3514</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>833.05</v>
+        <v>915.97</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1362.04</v>
+        <v>1367.45</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-22.4</v>
+        <v>129.61</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.635</v>
+        <v>1.4929</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.6431</v>
+        <v>1.486</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>6.75</v>
+        <v>-0.0046</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>-6.32</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N13" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O13" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P13" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="Q13" s="6" t="inlineStr">
@@ -1344,64 +1344,64 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>915.97</v>
+        <v>833.05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1357.56</v>
+        <v>1366.2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119.72</v>
+        <v>-18.24</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.4821</v>
+        <v>1.64</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.4791</v>
+        <v>1.6461</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>-2.75</v>
+        <v>0.0037</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>5.08</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N14" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O14" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q14" s="6" t="inlineStr">
@@ -1436,21 +1436,21 @@
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4774</v>
+        <v>1.4757</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>2.15</v>
+        <v>0.63</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1495,31 +1495,31 @@
         <v>1177.08</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1089.62</v>
+        <v>1095.63</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-12.34</v>
+        <v>-6.33</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9257</v>
+        <v>0.9308</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9319</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.0067</v>
+        <v>0.0046</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>7.3</v>
+        <v>4.94</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1564,31 +1564,31 @@
         <v>452.05</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>851.9299999999999</v>
+        <v>855.55</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43.18</v>
+        <v>46.8</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.8846</v>
+        <v>1.8926</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8932</v>
+        <v>1.8998</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0046</v>
+        <v>0.0038</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>3.89</v>
+        <v>3.25</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1633,31 +1633,31 @@
         <v>320.47</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>704.71</v>
+        <v>707.21</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.36</v>
+        <v>29.86</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2.199</v>
+        <v>2.2068</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.2071</v>
+        <v>2.215</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>0.0037</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1702,31 +1702,31 @@
         <v>249.29</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>239.14</v>
+        <v>241.21</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.14</v>
+        <v>2.21</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9593</v>
+        <v>0.9676</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.968</v>
+        <v>0.9721</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0047</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>2.17</v>
+        <v>1.12</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1771,31 +1771,31 @@
         <v>227.52</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213.46</v>
+        <v>214.14</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-10.05</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.9382</v>
+        <v>0.9412</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9397</v>
+        <v>0.9434</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0024</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1840,31 +1840,31 @@
         <v>142.1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>192.26</v>
+        <v>193.11</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.81</v>
+        <v>10.66</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.353</v>
+        <v>1.359</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3576</v>
+        <v>1.3585</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>0.65</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1909,31 +1909,31 @@
         <v>212.74</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>169.13</v>
+        <v>171.13</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26.43</v>
+        <v>28.43</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.795</v>
+        <v>0.8044</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.8053</v>
+        <v>0.8047</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.013</v>
+        <v>0.0004</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>2.19</v>
+        <v>0.06</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1978,31 +1978,31 @@
         <v>24.24</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36.03</v>
+        <v>36.01</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.05</v>
+        <v>-1.07</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1.4862</v>
+        <v>1.4856</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4886</v>
+        <v>1.4863</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2047,31 +2047,31 @@
         <v>9697.57</v>
       </c>
       <c r="E24" s="13" t="n">
-        <v>10594.59</v>
+        <v>10660.53</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>394.59</v>
+        <v>460.53</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>1.0925</v>
+        <v>1.0993</v>
       </c>
       <c r="H24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I24" s="12" t="n">
-        <v>1.0992</v>
+        <v>1.1041</v>
       </c>
       <c r="J24" s="15" t="n">
-        <v>0.0062</v>
+        <v>0.0044</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>64.97</v>
+        <v>46.55</v>
       </c>
       <c r="L24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M24" s="14" t="inlineStr">
@@ -2116,31 +2116,31 @@
         <v>8677.6</v>
       </c>
       <c r="E25" s="13" t="n">
-        <v>9658.16</v>
+        <v>9684.200000000001</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>858.16</v>
+        <v>884.2</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>1.113</v>
+        <v>1.116</v>
       </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I25" s="12" t="n">
-        <v>1.1185</v>
+        <v>1.1201</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>0.0049</v>
+        <v>0.0037</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>47.73</v>
+        <v>35.58</v>
       </c>
       <c r="L25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M25" s="14" t="inlineStr">
@@ -2185,31 +2185,31 @@
         <v>6750.28</v>
       </c>
       <c r="E26" s="13" t="n">
-        <v>5901.09</v>
+        <v>5955.09</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>1101.09</v>
+        <v>1155.09</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>0.8742</v>
+        <v>0.8822</v>
       </c>
       <c r="H26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I26" s="12" t="n">
-        <v>0.8842</v>
+        <v>0.8828</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>0.0115</v>
+        <v>0.0007</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>67.5</v>
+        <v>4.05</v>
       </c>
       <c r="L26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M26" s="14" t="inlineStr">
@@ -2254,31 +2254,31 @@
         <v>6096.21</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>5848.09</v>
+        <v>5898.69</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>648.09</v>
+        <v>698.6900000000001</v>
       </c>
       <c r="G27" s="12" t="n">
-        <v>0.9593</v>
+        <v>0.9676</v>
       </c>
       <c r="H27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I27" s="12" t="n">
-        <v>0.968</v>
+        <v>0.9721</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0047</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>53.04</v>
+        <v>27.43</v>
       </c>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M27" s="14" t="inlineStr">
@@ -2323,31 +2323,31 @@
         <v>2760.12</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>4587.31</v>
+        <v>4595.59</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>987.3099999999999</v>
+        <v>995.59</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.662</v>
+        <v>1.665</v>
       </c>
       <c r="H28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I28" s="12" t="n">
-        <v>1.6655</v>
+        <v>1.6696</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>0.0021</v>
+        <v>0.0028</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>9.66</v>
+        <v>12.7</v>
       </c>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M28" s="14" t="inlineStr">
@@ -2392,31 +2392,31 @@
         <v>4423.48</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>3313.62</v>
+        <v>3343.26</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>113.62</v>
+        <v>143.26</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>0.7491</v>
+        <v>0.7558</v>
       </c>
       <c r="H29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I29" s="12" t="n">
-        <v>0.7551</v>
+        <v>0.7631</v>
       </c>
       <c r="J29" s="15" t="n">
-        <v>0.008</v>
+        <v>0.0097</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>26.54</v>
+        <v>32.29</v>
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M29" s="14" t="inlineStr">
@@ -2461,31 +2461,31 @@
         <v>2046.97</v>
       </c>
       <c r="E30" s="13" t="n">
-        <v>3297.66</v>
+        <v>3316.09</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>585.55</v>
+        <v>603.98</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>1.611</v>
+        <v>1.62</v>
       </c>
       <c r="H30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I30" s="12" t="n">
-        <v>1.6228</v>
+        <v>1.6271</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>0.0073</v>
+        <v>0.0044</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>24.15</v>
+        <v>14.53</v>
       </c>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M30" s="14" t="inlineStr">
@@ -2530,31 +2530,31 @@
         <v>5949.77</v>
       </c>
       <c r="E31" s="13" t="n">
-        <v>3255.71</v>
+        <v>3257.49</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>55.71</v>
+        <v>57.49</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>0.5472</v>
+        <v>0.5475</v>
       </c>
       <c r="H31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I31" s="12" t="n">
-        <v>0.548</v>
+        <v>0.5492</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>0.0015</v>
+        <v>0.0031</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>4.76</v>
+        <v>10.11</v>
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:20</t>
         </is>
       </c>
       <c r="M31" s="14" t="inlineStr">
@@ -2599,31 +2599,31 @@
         <v>1743.65</v>
       </c>
       <c r="E32" s="13" t="n">
-        <v>2951.99</v>
+        <v>2953.74</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>160.99</v>
+        <v>162.74</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>1.693</v>
+        <v>1.694</v>
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I32" s="12" t="n">
-        <v>1.6945</v>
+        <v>1.6948</v>
       </c>
       <c r="J32" s="15" t="n">
-        <v>0.0009</v>
+        <v>0.0005</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>2.62</v>
+        <v>1.39</v>
       </c>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M32" s="14" t="inlineStr">
@@ -2668,10 +2668,10 @@
         <v>1884.74</v>
       </c>
       <c r="E33" s="13" t="n">
-        <v>2282.42</v>
+        <v>2267.34</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>282.42</v>
+        <v>267.34</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>0</v>
@@ -2737,31 +2737,31 @@
         <v>1213.09</v>
       </c>
       <c r="E34" s="13" t="n">
-        <v>2139.16</v>
+        <v>2153.96</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>539.16</v>
+        <v>553.96</v>
       </c>
       <c r="G34" s="12" t="n">
-        <v>1.7634</v>
+        <v>1.7756</v>
       </c>
       <c r="H34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I34" s="12" t="n">
-        <v>1.7793</v>
+        <v>1.7803</v>
       </c>
       <c r="J34" s="15" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0027</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>19.29</v>
+        <v>5.7</v>
       </c>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M34" s="14" t="inlineStr">
@@ -2806,31 +2806,31 @@
         <v>1630.08</v>
       </c>
       <c r="E35" s="13" t="n">
-        <v>1883.23</v>
+        <v>1889.26</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>283.23</v>
+        <v>289.26</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>1.1553</v>
+        <v>1.159</v>
       </c>
       <c r="H35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I35" s="12" t="n">
-        <v>1.1565</v>
+        <v>1.1588</v>
       </c>
       <c r="J35" s="15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>1.96</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-0.33</v>
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M35" s="14" t="inlineStr">
@@ -2875,31 +2875,31 @@
         <v>1407.29</v>
       </c>
       <c r="E36" s="13" t="n">
-        <v>1837.92</v>
+        <v>1822.44</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>237.92</v>
+        <v>222.44</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>1.306</v>
+        <v>1.295</v>
       </c>
       <c r="H36" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I36" s="12" t="n">
-        <v>1.3059</v>
+        <v>1.301</v>
       </c>
       <c r="J36" s="15" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>-0.14</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>8.44</v>
       </c>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M36" s="14" t="inlineStr">
@@ -2954,21 +2954,21 @@
       </c>
       <c r="H37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I37" s="12" t="n">
-        <v>1.0385</v>
+        <v>1.0387</v>
       </c>
       <c r="J37" s="15" t="n">
-        <v>0.0014</v>
+        <v>0.0016</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M37" s="14" t="inlineStr">
@@ -3013,31 +3013,31 @@
         <v>3350.7</v>
       </c>
       <c r="E38" s="13" t="n">
-        <v>1360.38</v>
+        <v>1316.82</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>-239.62</v>
+        <v>-283.18</v>
       </c>
       <c r="G38" s="12" t="n">
-        <v>0.406</v>
+        <v>0.393</v>
       </c>
       <c r="H38" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I38" s="12" t="n">
-        <v>0.4059</v>
+        <v>0.3955</v>
       </c>
       <c r="J38" s="15" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>-0.34</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>8.380000000000001</v>
       </c>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M38" s="14" t="inlineStr">
@@ -3082,31 +3082,31 @@
         <v>1495.03</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>1214.41</v>
+        <v>1222.03</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>14.41</v>
+        <v>22.03</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.8123</v>
+        <v>0.8174</v>
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I39" s="12" t="n">
-        <v>0.8167</v>
+        <v>0.82</v>
       </c>
       <c r="J39" s="15" t="n">
-        <v>0.0054</v>
+        <v>0.0032</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>6.58</v>
+        <v>3.89</v>
       </c>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M39" s="14" t="inlineStr">
@@ -3151,31 +3151,31 @@
         <v>900.35</v>
       </c>
       <c r="E40" s="13" t="n">
-        <v>1011.18</v>
+        <v>1011.72</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>211.18</v>
+        <v>211.72</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>1.1231</v>
+        <v>1.1237</v>
       </c>
       <c r="H40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I40" s="12" t="n">
-        <v>1.1259</v>
+        <v>1.1239</v>
       </c>
       <c r="J40" s="15" t="n">
-        <v>0.0025</v>
+        <v>0.0002</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>2.52</v>
+        <v>0.18</v>
       </c>
       <c r="L40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M40" s="14" t="inlineStr">
@@ -3220,31 +3220,31 @@
         <v>733.79</v>
       </c>
       <c r="E41" s="13" t="n">
-        <v>902.48</v>
+        <v>902.04</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>102.48</v>
+        <v>102.04</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>1.2299</v>
+        <v>1.2293</v>
       </c>
       <c r="H41" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I41" s="12" t="n">
-        <v>1.235</v>
+        <v>1.2109</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>3.74</v>
+        <v>-0.015</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-13.5</v>
       </c>
       <c r="L41" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M41" s="14" t="inlineStr">
@@ -3289,31 +3289,31 @@
         <v>496.13</v>
       </c>
       <c r="E42" s="13" t="n">
-        <v>497.12</v>
+        <v>499.6</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>97.12</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G42" s="12" t="n">
-        <v>1.002</v>
+        <v>1.007</v>
       </c>
       <c r="H42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I42" s="12" t="n">
-        <v>1.008</v>
+        <v>1.01</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>0.006</v>
+        <v>0.0029</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>2.98</v>
+        <v>1.49</v>
       </c>
       <c r="L42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M42" s="14" t="inlineStr">
@@ -3358,31 +3358,31 @@
         <v>492.57</v>
       </c>
       <c r="E43" s="13" t="n">
-        <v>472.32</v>
+        <v>475.52</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>72.31999999999999</v>
+        <v>75.52</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>0.9589</v>
+        <v>0.9654</v>
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I43" s="12" t="n">
-        <v>0.9684</v>
+        <v>0.9677</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0024</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>4.68</v>
+        <v>1.13</v>
       </c>
       <c r="L43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M43" s="14" t="inlineStr">
@@ -3427,31 +3427,31 @@
         <v>333.04</v>
       </c>
       <c r="E44" s="13" t="n">
-        <v>454.29</v>
+        <v>454.93</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>54.29</v>
+        <v>54.93</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>1.3641</v>
+        <v>1.366</v>
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I44" s="12" t="n">
-        <v>1.3665</v>
+        <v>1.3679</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>0.0017</v>
+        <v>0.0014</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:55</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M44" s="14" t="inlineStr">
@@ -3496,31 +3496,31 @@
         <v>325.61</v>
       </c>
       <c r="E45" s="13" t="n">
-        <v>434.36</v>
+        <v>435.01</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>34.36</v>
+        <v>35.01</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>1.334</v>
+        <v>1.336</v>
       </c>
       <c r="H45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I45" s="12" t="n">
-        <v>1.3378</v>
+        <v>1.3399</v>
       </c>
       <c r="J45" s="15" t="n">
         <v>0.0029</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="L45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M45" s="14" t="inlineStr">
@@ -3565,31 +3565,31 @@
         <v>275.49</v>
       </c>
       <c r="E46" s="13" t="n">
-        <v>425.32</v>
+        <v>427.56</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>25.32</v>
+        <v>27.56</v>
       </c>
       <c r="G46" s="12" t="n">
-        <v>1.5439</v>
+        <v>1.552</v>
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I46" s="12" t="n">
-        <v>1.5406</v>
+        <v>1.5448</v>
       </c>
       <c r="J46" s="15" t="n">
-        <v>-0.0022</v>
+        <v>-0.0047</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>-0.91</v>
+        <v>-1.98</v>
       </c>
       <c r="L46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:57</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M46" s="14" t="inlineStr">
@@ -3634,31 +3634,31 @@
         <v>275.96</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>240.88</v>
+        <v>242.4</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>12.12</v>
+        <v>13.64</v>
       </c>
       <c r="G47" s="12" t="n">
-        <v>0.8729</v>
+        <v>0.8784</v>
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I47" s="12" t="n">
-        <v>0.879</v>
+        <v>0.8823</v>
       </c>
       <c r="J47" s="15" t="n">
-        <v>0.007</v>
+        <v>0.0045</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="L47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:56</t>
+          <t>2019-11-08 10:21</t>
         </is>
       </c>
       <c r="M47" s="14" t="inlineStr">

--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -529,10 +529,10 @@
         <v>949.05</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1399.85</v>
+        <v>1390.36</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>47.68</v>
+        <v>38.19</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.475</v>
@@ -543,17 +543,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4757</v>
+        <v>1.4651</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0005</v>
+        <v>-0.0067</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.66</v>
+        <v>-9.4</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -598,10 +598,10 @@
         <v>898.04</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1340.68</v>
+        <v>1334.85</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>129.71</v>
+        <v>123.88</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.4929</v>
@@ -612,17 +612,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.486</v>
+        <v>1.483</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>-6.2</v>
+        <v>-0.0066</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>-8.890000000000001</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -667,10 +667,10 @@
         <v>803.24</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1317.31</v>
+        <v>1315.71</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-12.14</v>
+        <v>-13.74</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.64</v>
@@ -681,17 +681,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6461</v>
+        <v>1.6369</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0019</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>4.9</v>
+        <v>-2.49</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -736,10 +736,10 @@
         <v>1216.78</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1132.58</v>
+        <v>1130.02</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.54</v>
+        <v>-7.1</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9308</v>
@@ -750,17 +750,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9286</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0046</v>
+        <v>-0.0024</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>5.11</v>
+        <v>-2.68</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -805,10 +805,10 @@
         <v>444.49</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>841.24</v>
+        <v>839.15</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45.56</v>
+        <v>43.47</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8926</v>
@@ -819,17 +819,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8998</v>
+        <v>1.8879</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0038</v>
+        <v>-0.0025</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>3.2</v>
+        <v>-2.09</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -874,10 +874,10 @@
         <v>355.05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>783.52</v>
+        <v>781.96</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32.34</v>
+        <v>30.78</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.2068</v>
@@ -888,17 +888,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.215</v>
+        <v>2.2022</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0021</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>2.91</v>
+        <v>-1.63</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -943,10 +943,10 @@
         <v>284.05</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>274.85</v>
+        <v>275.3</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.02</v>
+        <v>2.47</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9676</v>
@@ -957,17 +957,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9721</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>1.28</v>
+        <v>0.0017</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.48</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1012,10 +1012,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>202.25</v>
+        <v>201.82</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-8.970000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9412</v>
@@ -1026,17 +1026,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9434</v>
+        <v>0.9368</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0024</v>
+        <v>-0.0047</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.47</v>
+        <v>-0.95</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1081,10 +1081,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171.13</v>
+        <v>170.4</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28.43</v>
+        <v>27.7</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.8044</v>
@@ -1095,17 +1095,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8047</v>
+        <v>0.8008</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0004</v>
+        <v>-0.0045</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.06</v>
+        <v>-0.77</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1150,10 +1150,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84.38</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.34</v>
+        <v>3.97</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.359</v>
@@ -1164,17 +1164,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3585</v>
+        <v>1.3519</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>-0.03</v>
+        <v>-0.0052</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-0.44</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1219,10 +1219,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.01</v>
+        <v>35.78</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.07</v>
+        <v>-1.3</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4856</v>
@@ -1233,17 +1233,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4863</v>
+        <v>1.4756</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0005</v>
+        <v>-0.0067</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1275,26 +1275,26 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6619</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>915.97</v>
+        <v>833.05</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1367.45</v>
+        <v>1364.54</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129.61</v>
+        <v>-19.9</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.4929</v>
+        <v>1.64</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.486</v>
+        <v>1.6369</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>-6.32</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>-2.58</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N13" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O13" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P13" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q13" s="6" t="inlineStr">
@@ -1344,26 +1344,26 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.6619</v>
+        <v>1.3514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>833.05</v>
+        <v>915.97</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1366.2</v>
+        <v>1361.5</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-18.24</v>
+        <v>123.66</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.64</v>
+        <v>1.4929</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
@@ -1371,37 +1371,37 @@
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.6461</v>
+        <v>1.483</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0066</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>5.08</v>
+        <v>-9.07</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N14" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O14" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="Q14" s="6" t="inlineStr">
@@ -1426,10 +1426,10 @@
         <v>897.58</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1323.93</v>
+        <v>1314.95</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47.51</v>
+        <v>38.53</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1.475</v>
@@ -1440,17 +1440,17 @@
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4757</v>
+        <v>1.4651</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.0005</v>
+        <v>-0.0067</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>0.63</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1495,10 +1495,10 @@
         <v>1177.08</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1095.63</v>
+        <v>1093.15</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.33</v>
+        <v>-8.81</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0.9308</v>
@@ -1509,17 +1509,17 @@
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9286</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.0046</v>
+        <v>-0.0024</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>4.94</v>
+        <v>-2.59</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1564,10 +1564,10 @@
         <v>452.05</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>855.55</v>
+        <v>853.4299999999999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46.8</v>
+        <v>44.68</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1.8926</v>
@@ -1578,17 +1578,17 @@
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8998</v>
+        <v>1.8879</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0038</v>
+        <v>-0.0025</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>3.25</v>
+        <v>-2.12</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1633,10 +1633,10 @@
         <v>320.47</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>707.21</v>
+        <v>705.8</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29.86</v>
+        <v>28.45</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>2.2068</v>
@@ -1647,17 +1647,17 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.215</v>
+        <v>2.2022</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0021</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>2.63</v>
+        <v>-1.47</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1702,10 +1702,10 @@
         <v>249.29</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>241.21</v>
+        <v>241.61</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.21</v>
+        <v>2.61</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>0.9676</v>
@@ -1716,17 +1716,17 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9721</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>1.12</v>
+        <v>0.0017</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.42</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1771,10 +1771,10 @@
         <v>227.52</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214.14</v>
+        <v>213.69</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-9.369999999999999</v>
+        <v>-9.82</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0.9412</v>
@@ -1785,17 +1785,17 @@
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9434</v>
+        <v>0.9368</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0024</v>
+        <v>-0.0047</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1840,10 +1840,10 @@
         <v>142.1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>193.11</v>
+        <v>192.26</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.66</v>
+        <v>9.81</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>1.359</v>
@@ -1854,17 +1854,17 @@
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3585</v>
+        <v>1.3519</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.0052</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-1.01</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1909,10 +1909,10 @@
         <v>212.74</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>171.13</v>
+        <v>170.4</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28.43</v>
+        <v>27.7</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0.8044</v>
@@ -1923,17 +1923,17 @@
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.8047</v>
+        <v>0.8008</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.0004</v>
+        <v>-0.0045</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>0.06</v>
+        <v>-0.77</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1978,10 +1978,10 @@
         <v>24.24</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36.01</v>
+        <v>35.78</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.07</v>
+        <v>-1.3</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1.4856</v>
@@ -1992,17 +1992,17 @@
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4863</v>
+        <v>1.4756</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0.0005</v>
+        <v>-0.0067</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2047,10 +2047,10 @@
         <v>9697.57</v>
       </c>
       <c r="E24" s="13" t="n">
-        <v>10660.53</v>
+        <v>10624.65</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>460.53</v>
+        <v>424.65</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>1.0993</v>
@@ -2061,17 +2061,17 @@
         </is>
       </c>
       <c r="I24" s="12" t="n">
-        <v>1.1041</v>
+        <v>1.0953</v>
       </c>
       <c r="J24" s="15" t="n">
-        <v>0.0044</v>
+        <v>-0.0036</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>46.55</v>
+        <v>-38.79</v>
       </c>
       <c r="L24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M24" s="14" t="inlineStr">
@@ -2116,10 +2116,10 @@
         <v>8677.6</v>
       </c>
       <c r="E25" s="13" t="n">
-        <v>9684.200000000001</v>
+        <v>9649.49</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>884.2</v>
+        <v>849.49</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>1.116</v>
@@ -2130,17 +2130,17 @@
         </is>
       </c>
       <c r="I25" s="12" t="n">
-        <v>1.1201</v>
+        <v>1.1139</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>0.0037</v>
+        <v>-0.0019</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>35.58</v>
+        <v>-18.22</v>
       </c>
       <c r="L25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M25" s="14" t="inlineStr">
@@ -2185,10 +2185,10 @@
         <v>6750.28</v>
       </c>
       <c r="E26" s="13" t="n">
-        <v>5955.09</v>
+        <v>5937.54</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>1155.09</v>
+        <v>1137.54</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>0.8822</v>
@@ -2199,17 +2199,17 @@
         </is>
       </c>
       <c r="I26" s="12" t="n">
-        <v>0.8828</v>
+        <v>0.8794</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>0.0007</v>
+        <v>-0.0032</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>4.05</v>
+        <v>-18.9</v>
       </c>
       <c r="L26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M26" s="14" t="inlineStr">
@@ -2254,10 +2254,10 @@
         <v>6096.21</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>5898.69</v>
+        <v>5908.44</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>698.6900000000001</v>
+        <v>708.4400000000001</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>0.9676</v>
@@ -2268,17 +2268,17 @@
         </is>
       </c>
       <c r="I27" s="12" t="n">
-        <v>0.9721</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>27.43</v>
+        <v>0.0017</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>10.36</v>
       </c>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M27" s="14" t="inlineStr">
@@ -2323,10 +2323,10 @@
         <v>2760.12</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>4595.59</v>
+        <v>4570.75</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>995.59</v>
+        <v>970.75</v>
       </c>
       <c r="G28" s="12" t="n">
         <v>1.665</v>
@@ -2337,17 +2337,17 @@
         </is>
       </c>
       <c r="I28" s="12" t="n">
-        <v>1.6696</v>
+        <v>1.6576</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>0.0028</v>
+        <v>-0.0045</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>12.7</v>
+        <v>-20.42</v>
       </c>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M28" s="14" t="inlineStr">
@@ -2392,10 +2392,10 @@
         <v>4423.48</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>3343.26</v>
+        <v>3349.45</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>143.26</v>
+        <v>149.45</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>0.7558</v>
@@ -2406,17 +2406,17 @@
         </is>
       </c>
       <c r="I29" s="12" t="n">
-        <v>0.7631</v>
+        <v>0.7573</v>
       </c>
       <c r="J29" s="15" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>32.29</v>
+        <v>0.002</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>6.64</v>
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M29" s="14" t="inlineStr">
@@ -2461,10 +2461,10 @@
         <v>2046.97</v>
       </c>
       <c r="E30" s="13" t="n">
-        <v>3316.09</v>
+        <v>3295.62</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>603.98</v>
+        <v>583.51</v>
       </c>
       <c r="G30" s="12" t="n">
         <v>1.62</v>
@@ -2475,17 +2475,17 @@
         </is>
       </c>
       <c r="I30" s="12" t="n">
-        <v>1.6271</v>
+        <v>1.6142</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>0.0044</v>
+        <v>-0.0036</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>14.53</v>
+        <v>-11.87</v>
       </c>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M30" s="14" t="inlineStr">
@@ -2530,10 +2530,10 @@
         <v>5949.77</v>
       </c>
       <c r="E31" s="13" t="n">
-        <v>3257.49</v>
+        <v>3248.57</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>57.49</v>
+        <v>48.57</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>0.5475</v>
@@ -2544,17 +2544,17 @@
         </is>
       </c>
       <c r="I31" s="12" t="n">
-        <v>0.5492</v>
+        <v>0.5458</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>0.0031</v>
+        <v>-0.0031</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>10.11</v>
+        <v>-10.11</v>
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:20</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M31" s="14" t="inlineStr">
@@ -2599,10 +2599,10 @@
         <v>1743.65</v>
       </c>
       <c r="E32" s="13" t="n">
-        <v>2953.74</v>
+        <v>2948.51</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>162.74</v>
+        <v>157.51</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>1.694</v>
@@ -2613,17 +2613,17 @@
         </is>
       </c>
       <c r="I32" s="12" t="n">
-        <v>1.6948</v>
+        <v>1.6915</v>
       </c>
       <c r="J32" s="15" t="n">
-        <v>0.0005</v>
+        <v>-0.0015</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>1.39</v>
+        <v>-4.36</v>
       </c>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M32" s="14" t="inlineStr">
@@ -2687,7 +2687,7 @@
       <c r="J33" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="14" t="inlineStr">
@@ -2737,10 +2737,10 @@
         <v>1213.09</v>
       </c>
       <c r="E34" s="13" t="n">
-        <v>2153.96</v>
+        <v>2148.62</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>553.96</v>
+        <v>548.62</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>1.7756</v>
@@ -2751,17 +2751,17 @@
         </is>
       </c>
       <c r="I34" s="12" t="n">
-        <v>1.7803</v>
+        <v>1.7714</v>
       </c>
       <c r="J34" s="15" t="n">
-        <v>0.0027</v>
+        <v>-0.0024</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>5.7</v>
+        <v>-5.09</v>
       </c>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M34" s="14" t="inlineStr">
@@ -2806,10 +2806,10 @@
         <v>1630.08</v>
       </c>
       <c r="E35" s="13" t="n">
-        <v>1889.26</v>
+        <v>1889.58</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>289.26</v>
+        <v>289.58</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>1.159</v>
@@ -2820,17 +2820,17 @@
         </is>
       </c>
       <c r="I35" s="12" t="n">
-        <v>1.1588</v>
+        <v>1.1574</v>
       </c>
       <c r="J35" s="15" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>-0.33</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-2.61</v>
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M35" s="14" t="inlineStr">
@@ -2875,10 +2875,10 @@
         <v>1407.29</v>
       </c>
       <c r="E36" s="13" t="n">
-        <v>1822.44</v>
+        <v>1866.06</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>222.44</v>
+        <v>266.06</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>1.295</v>
@@ -2889,17 +2889,17 @@
         </is>
       </c>
       <c r="I36" s="12" t="n">
-        <v>1.301</v>
+        <v>1.2947</v>
       </c>
       <c r="J36" s="15" t="n">
-        <v>0.0047</v>
+        <v>-0.0003</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>8.44</v>
+        <v>-0.42</v>
       </c>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M36" s="14" t="inlineStr">
@@ -2944,10 +2944,10 @@
         <v>1338.46</v>
       </c>
       <c r="E37" s="13" t="n">
-        <v>1387.98</v>
+        <v>1379.95</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>187.98</v>
+        <v>179.95</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>1.037</v>
@@ -2958,17 +2958,17 @@
         </is>
       </c>
       <c r="I37" s="12" t="n">
-        <v>1.0387</v>
+        <v>1.0302</v>
       </c>
       <c r="J37" s="15" t="n">
-        <v>0.0016</v>
+        <v>-0.0066</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>2.28</v>
+        <v>-9.1</v>
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M37" s="14" t="inlineStr">
@@ -3013,10 +3013,10 @@
         <v>3350.7</v>
       </c>
       <c r="E38" s="13" t="n">
-        <v>1316.82</v>
+        <v>1340.28</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>-283.18</v>
+        <v>-259.72</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>0.393</v>
@@ -3027,17 +3027,17 @@
         </is>
       </c>
       <c r="I38" s="12" t="n">
-        <v>0.3955</v>
+        <v>0.3929</v>
       </c>
       <c r="J38" s="15" t="n">
-        <v>0.0063</v>
+        <v>-0.0003</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>8.380000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M38" s="14" t="inlineStr">
@@ -3082,10 +3082,10 @@
         <v>1495.03</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>1222.03</v>
+        <v>1218.44</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>22.03</v>
+        <v>18.44</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>0.8174</v>
@@ -3096,17 +3096,17 @@
         </is>
       </c>
       <c r="I39" s="12" t="n">
-        <v>0.82</v>
+        <v>0.8148</v>
       </c>
       <c r="J39" s="15" t="n">
-        <v>0.0032</v>
+        <v>-0.0032</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>3.89</v>
+        <v>-3.89</v>
       </c>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M39" s="14" t="inlineStr">
@@ -3151,10 +3151,10 @@
         <v>900.35</v>
       </c>
       <c r="E40" s="13" t="n">
-        <v>1011.72</v>
+        <v>1001.81</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>211.72</v>
+        <v>201.81</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>1.1237</v>
@@ -3165,17 +3165,17 @@
         </is>
       </c>
       <c r="I40" s="12" t="n">
-        <v>1.1239</v>
+        <v>1.1124</v>
       </c>
       <c r="J40" s="15" t="n">
-        <v>0.0002</v>
+        <v>-0.0101</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>0.18</v>
+        <v>-10.17</v>
       </c>
       <c r="L40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M40" s="14" t="inlineStr">
@@ -3220,10 +3220,10 @@
         <v>733.79</v>
       </c>
       <c r="E41" s="13" t="n">
-        <v>902.04</v>
+        <v>889.86</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>102.04</v>
+        <v>89.86</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>1.2293</v>
@@ -3234,17 +3234,17 @@
         </is>
       </c>
       <c r="I41" s="12" t="n">
-        <v>1.2109</v>
+        <v>1.213</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>-0.015</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>-13.5</v>
+        <v>-0.0132</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>-11.96</v>
       </c>
       <c r="L41" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:30</t>
         </is>
       </c>
       <c r="M41" s="14" t="inlineStr">
@@ -3289,10 +3289,10 @@
         <v>496.13</v>
       </c>
       <c r="E42" s="13" t="n">
-        <v>499.6</v>
+        <v>493.35</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>99.59999999999999</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>1.007</v>
@@ -3303,17 +3303,17 @@
         </is>
       </c>
       <c r="I42" s="12" t="n">
-        <v>1.01</v>
+        <v>0.9941</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>0.0029</v>
+        <v>-0.0128</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>1.49</v>
+        <v>-6.4</v>
       </c>
       <c r="L42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M42" s="14" t="inlineStr">
@@ -3358,10 +3358,10 @@
         <v>492.57</v>
       </c>
       <c r="E43" s="13" t="n">
-        <v>475.52</v>
+        <v>474.29</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>75.52</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>0.9654</v>
@@ -3372,17 +3372,17 @@
         </is>
       </c>
       <c r="I43" s="12" t="n">
-        <v>0.9677</v>
+        <v>0.9631</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>0.0024</v>
+        <v>-0.0024</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>1.13</v>
+        <v>-1.13</v>
       </c>
       <c r="L43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M43" s="14" t="inlineStr">
@@ -3427,10 +3427,10 @@
         <v>333.04</v>
       </c>
       <c r="E44" s="13" t="n">
-        <v>454.93</v>
+        <v>454.56</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>54.93</v>
+        <v>54.56</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>1.366</v>
@@ -3441,17 +3441,17 @@
         </is>
       </c>
       <c r="I44" s="12" t="n">
-        <v>1.3679</v>
+        <v>1.3639</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>0.0014</v>
+        <v>-0.0015</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>0.63</v>
+        <v>-0.7</v>
       </c>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M44" s="14" t="inlineStr">
@@ -3496,10 +3496,10 @@
         <v>325.61</v>
       </c>
       <c r="E45" s="13" t="n">
-        <v>435.01</v>
+        <v>433.06</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>35.01</v>
+        <v>33.06</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>1.336</v>
@@ -3510,17 +3510,17 @@
         </is>
       </c>
       <c r="I45" s="12" t="n">
-        <v>1.3399</v>
+        <v>1.33</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>0.0029</v>
+        <v>-0.0045</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>1.27</v>
+        <v>-1.95</v>
       </c>
       <c r="L45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M45" s="14" t="inlineStr">
@@ -3565,10 +3565,10 @@
         <v>275.49</v>
       </c>
       <c r="E46" s="13" t="n">
-        <v>427.56</v>
+        <v>424.36</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>27.56</v>
+        <v>24.36</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>1.552</v>
@@ -3579,17 +3579,17 @@
         </is>
       </c>
       <c r="I46" s="12" t="n">
-        <v>1.5448</v>
+        <v>1.5416</v>
       </c>
       <c r="J46" s="15" t="n">
-        <v>-0.0047</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>-1.98</v>
+        <v>-0.0067</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>-2.87</v>
       </c>
       <c r="L46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M46" s="14" t="inlineStr">
@@ -3634,10 +3634,10 @@
         <v>275.96</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>242.4</v>
+        <v>241.57</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>13.64</v>
+        <v>12.81</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>0.8784</v>
@@ -3648,17 +3648,17 @@
         </is>
       </c>
       <c r="I47" s="12" t="n">
-        <v>0.8823</v>
+        <v>0.8752</v>
       </c>
       <c r="J47" s="15" t="n">
-        <v>0.0045</v>
+        <v>-0.0036</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>1.08</v>
+        <v>-0.88</v>
       </c>
       <c r="L47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:21</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M47" s="14" t="inlineStr">

--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -40,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,11 +50,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00F0DC5A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -94,15 +89,14 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -523,37 +517,37 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4248</v>
+        <v>1.4255</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>949.05</v>
+        <v>981.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1390.36</v>
+        <v>1416.33</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>38.19</v>
+        <v>17.18</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.475</v>
+        <v>1.428</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4651</v>
+        <v>1.4417</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0067</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-9.4</v>
+        <v>13.45</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -585,64 +579,64 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.6538</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>898.04</v>
+        <v>831.6799999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1334.85</v>
+        <v>1336.51</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>123.88</v>
+        <v>-38.9</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4929</v>
+        <v>1.592</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.483</v>
+        <v>1.6073</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0066</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-8.890000000000001</v>
+        <v>12.72</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 16:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N3" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P3" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q3" s="6" t="inlineStr">
@@ -654,64 +648,64 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.6551</v>
+        <v>1.3485</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>803.24</v>
+        <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1315.71</v>
+        <v>1295.06</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-13.74</v>
+        <v>84.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6369</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-2.49</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N4" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P4" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="Q4" s="6" t="inlineStr">
@@ -730,37 +724,37 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9345</v>
+        <v>0.9337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1216.78</v>
+        <v>1265.09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1130.02</v>
+        <v>1150.73</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.1</v>
+        <v>-30.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9308</v>
+        <v>0.904</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9286</v>
+        <v>0.9091</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0024</v>
+        <v>0.0056</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-2.68</v>
+        <v>6.45</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -799,37 +793,37 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7901</v>
+        <v>1.7925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>444.49</v>
+        <v>463.76</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>839.15</v>
+        <v>856.15</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43.47</v>
+        <v>24.87</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8926</v>
+        <v>1.8301</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8879</v>
+        <v>1.8461</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-2.09</v>
+        <v>7.42</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -868,37 +862,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1157</v>
+        <v>2.1175</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>355.05</v>
+        <v>372.46</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>781.96</v>
+        <v>800.12</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30.78</v>
+        <v>11.44</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2068</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2022</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -937,37 +931,37 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9605</v>
+        <v>0.9599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>284.05</v>
+        <v>319.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275.3</v>
+        <v>308.7</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.47</v>
+        <v>1.64</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9676</v>
+        <v>0.9555</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9648</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0.48</v>
+        <v>0.0097</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>2.98</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1012,31 +1006,31 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201.82</v>
+        <v>198.69</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-9.4</v>
+        <v>-12.53</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9412</v>
+        <v>0.9147</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9368</v>
+        <v>0.9201</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0047</v>
+        <v>0.0059</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-0.95</v>
+        <v>1.16</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1081,31 +1075,31 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170.4</v>
+        <v>169.47</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27.7</v>
+        <v>26.77</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8044</v>
+        <v>0.7925</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8008</v>
+        <v>0.7955</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0045</v>
+        <v>0.0038</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-0.77</v>
+        <v>0.64</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1150,31 +1144,31 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84.01000000000001</v>
+        <v>82.39</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.97</v>
+        <v>2.35</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.359</v>
+        <v>1.315</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3519</v>
+        <v>1.324</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0052</v>
+        <v>0.0068</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1219,31 +1213,31 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.78</v>
+        <v>35.21</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.3</v>
+        <v>-1.87</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4856</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4756</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0067</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1282,37 +1276,37 @@
         <v>90010</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>1.6619</v>
+        <v>1.6604</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>833.05</v>
+        <v>861.49</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1364.54</v>
+        <v>1384.41</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-19.9</v>
+        <v>-45.99</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.64</v>
+        <v>1.592</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.6369</v>
+        <v>1.6073</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-2.58</v>
+        <v>13.18</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1344,64 +1338,64 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>501021</v>
+        <v>519671</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.4229</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>915.97</v>
+        <v>930.05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1361.5</v>
+        <v>1342.06</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123.66</v>
+        <v>18.66</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.4929</v>
+        <v>1.428</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.483</v>
+        <v>1.4417</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>-0.0066</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-9.07</v>
+        <v>12.74</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 16:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N14" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O14" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q14" s="6" t="inlineStr">
@@ -1413,64 +1407,64 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>519671</v>
+        <v>501021</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.4221</v>
+        <v>1.3514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>897.58</v>
+        <v>915.97</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1314.95</v>
+        <v>1320.92</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38.53</v>
+        <v>83.08</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.475</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4651</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>-0.0067</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N15" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O15" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P15" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>212</t>
         </is>
       </c>
       <c r="Q15" s="6" t="inlineStr">
@@ -1489,37 +1483,37 @@
         <v>3318</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.9362</v>
+        <v>0.9352</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1177.08</v>
+        <v>1225.39</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1093.15</v>
+        <v>1114.61</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.81</v>
+        <v>-31.4</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9308</v>
+        <v>0.904</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9286</v>
+        <v>0.9091</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>-0.0024</v>
+        <v>0.0056</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-2.59</v>
+        <v>6.25</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1558,37 +1552,37 @@
         <v>70023</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1.7891</v>
+        <v>1.7915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>452.05</v>
+        <v>471.32</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>853.4299999999999</v>
+        <v>870.1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44.68</v>
+        <v>25.75</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.8926</v>
+        <v>1.8301</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8879</v>
+        <v>1.8461</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-2.12</v>
+        <v>7.54</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1627,37 +1621,37 @@
         <v>530015</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>2.1136</v>
+        <v>2.1157</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>320.47</v>
+        <v>337.88</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>705.8</v>
+        <v>725.83</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28.45</v>
+        <v>10.98</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2.2068</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.2022</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-1.47</v>
+        <v>0</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1696,37 +1690,37 @@
         <v>968</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.9587</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>249.29</v>
+        <v>285.14</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>241.61</v>
+        <v>275.16</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.61</v>
+        <v>1.93</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9676</v>
+        <v>0.9555</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9648</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0.42</v>
+        <v>0.0097</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>2.65</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1771,31 +1765,31 @@
         <v>227.52</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213.69</v>
+        <v>210.36</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-9.82</v>
+        <v>-13.14</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.9412</v>
+        <v>0.9147</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9368</v>
+        <v>0.9201</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>-0.0047</v>
+        <v>0.0059</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-1</v>
+        <v>1.23</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1840,31 +1834,31 @@
         <v>142.1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>192.26</v>
+        <v>188.57</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.81</v>
+        <v>6.12</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.359</v>
+        <v>1.315</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3519</v>
+        <v>1.324</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>-0.0052</v>
+        <v>0.0068</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-1.01</v>
+        <v>1.28</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1909,31 +1903,31 @@
         <v>212.74</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170.4</v>
+        <v>169.47</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27.7</v>
+        <v>26.77</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.8044</v>
+        <v>0.7925</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.8008</v>
+        <v>0.7955</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>-0.0045</v>
+        <v>0.0038</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-0.77</v>
+        <v>0.64</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1978,31 +1972,31 @@
         <v>24.24</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35.78</v>
+        <v>35.21</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.3</v>
+        <v>-1.87</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1.4856</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4756</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>-0.0067</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2032,1656 +2026,1656 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>广发中证500ETF联接A</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="10" t="n">
         <v>162711</v>
       </c>
-      <c r="C24" s="12" t="n">
+      <c r="C24" s="11" t="n">
         <v>1.0519</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="12" t="n">
         <v>9697.57</v>
       </c>
-      <c r="E24" s="13" t="n">
-        <v>10624.65</v>
-      </c>
-      <c r="F24" s="13" t="n">
-        <v>424.65</v>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>1.0993</v>
-      </c>
-      <c r="H24" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>1.0953</v>
-      </c>
-      <c r="J24" s="15" t="n">
-        <v>-0.0036</v>
+      <c r="E24" s="12" t="n">
+        <v>10437.49</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>237.49</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>1.0712</v>
+      </c>
+      <c r="H24" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>1.0762</v>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-38.79</v>
-      </c>
-      <c r="L24" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M24" s="14" t="inlineStr">
+        <v>48.49</v>
+      </c>
+      <c r="L24" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M24" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N24" s="14" t="inlineStr">
+      <c r="N24" s="13" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O24" s="14" t="inlineStr">
+      <c r="O24" s="13" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P24" s="14" t="inlineStr">
+      <c r="P24" s="13" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q24" s="14" t="inlineStr">
+      <c r="Q24" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="10" t="n">
         <v>100032</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="11" t="n">
         <v>1.0142</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="12" t="n">
         <v>8677.6</v>
       </c>
-      <c r="E25" s="13" t="n">
-        <v>9649.49</v>
-      </c>
-      <c r="F25" s="13" t="n">
-        <v>849.49</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>1.116</v>
-      </c>
-      <c r="H25" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I25" s="12" t="n">
-        <v>1.1139</v>
-      </c>
-      <c r="J25" s="15" t="n">
-        <v>-0.0019</v>
+      <c r="E25" s="12" t="n">
+        <v>9484.610000000001</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>684.61</v>
+      </c>
+      <c r="G25" s="11" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="H25" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I25" s="11" t="n">
+        <v>1.0934</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>0.009599999999999999</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-18.22</v>
-      </c>
-      <c r="L25" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M25" s="14" t="inlineStr">
+        <v>90.25</v>
+      </c>
+      <c r="L25" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M25" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N25" s="14" t="inlineStr">
+      <c r="N25" s="13" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="O25" s="14" t="inlineStr">
+      <c r="O25" s="13" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="P25" s="14" t="inlineStr">
+      <c r="P25" s="13" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Q25" s="14" t="inlineStr">
+      <c r="Q25" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>广发医药卫生联接A</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="10" t="n">
         <v>1180</v>
       </c>
-      <c r="C26" s="12" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.7111</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="12" t="n">
         <v>6750.28</v>
       </c>
-      <c r="E26" s="13" t="n">
-        <v>5937.54</v>
-      </c>
-      <c r="F26" s="13" t="n">
-        <v>1137.54</v>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>0.8822</v>
-      </c>
-      <c r="H26" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I26" s="12" t="n">
-        <v>0.8794</v>
-      </c>
-      <c r="J26" s="15" t="n">
-        <v>-0.0032</v>
+      <c r="E26" s="12" t="n">
+        <v>5905.14</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>1105.14</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>0.8704</v>
+      </c>
+      <c r="H26" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I26" s="11" t="n">
+        <v>0.8744</v>
+      </c>
+      <c r="J26" s="14" t="n">
+        <v>0.0046</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="L26" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M26" s="14" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="L26" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M26" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N26" s="14" t="inlineStr">
+      <c r="N26" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O26" s="14" t="inlineStr">
+      <c r="O26" s="13" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P26" s="14" t="inlineStr">
+      <c r="P26" s="13" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q26" s="14" t="inlineStr">
+      <c r="Q26" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>968</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.853</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="12" t="n">
         <v>6096.21</v>
       </c>
-      <c r="E27" s="13" t="n">
-        <v>5908.44</v>
-      </c>
-      <c r="F27" s="13" t="n">
-        <v>708.4400000000001</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>0.9676</v>
-      </c>
-      <c r="H27" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I27" s="12" t="n">
-        <v>0.9693000000000001</v>
-      </c>
-      <c r="J27" s="15" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L27" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M27" s="14" t="inlineStr">
+      <c r="E27" s="12" t="n">
+        <v>5882.84</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>682.84</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="H27" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="n">
+        <v>0.9648</v>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>56.69</v>
+      </c>
+      <c r="L27" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M27" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N27" s="14" t="inlineStr">
+      <c r="N27" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O27" s="14" t="inlineStr">
+      <c r="O27" s="13" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="P27" s="14" t="inlineStr">
+      <c r="P27" s="13" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="Q27" s="14" t="inlineStr">
+      <c r="Q27" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>富国沪深300指数增强</t>
         </is>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="10" t="n">
         <v>100038</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="11" t="n">
         <v>1.3043</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="12" t="n">
         <v>2760.12</v>
       </c>
-      <c r="E28" s="13" t="n">
-        <v>4570.75</v>
-      </c>
-      <c r="F28" s="13" t="n">
-        <v>970.75</v>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>1.665</v>
-      </c>
-      <c r="H28" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I28" s="12" t="n">
-        <v>1.6576</v>
-      </c>
-      <c r="J28" s="15" t="n">
-        <v>-0.0045</v>
+      <c r="E28" s="12" t="n">
+        <v>4512.79</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>912.79</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="H28" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I28" s="11" t="n">
+        <v>1.6343</v>
+      </c>
+      <c r="J28" s="14" t="n">
+        <v>0.0076</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-20.42</v>
-      </c>
-      <c r="L28" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M28" s="14" t="inlineStr">
+        <v>33.95</v>
+      </c>
+      <c r="L28" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M28" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N28" s="14" t="inlineStr">
+      <c r="N28" s="13" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O28" s="14" t="inlineStr">
+      <c r="O28" s="13" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P28" s="14" t="inlineStr">
+      <c r="P28" s="13" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q28" s="14" t="inlineStr">
+      <c r="Q28" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="10" t="n">
         <v>4752</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.7235</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="12" t="n">
         <v>4423.48</v>
       </c>
-      <c r="E29" s="13" t="n">
-        <v>3349.45</v>
-      </c>
-      <c r="F29" s="13" t="n">
-        <v>149.45</v>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>0.7558</v>
-      </c>
-      <c r="H29" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I29" s="12" t="n">
-        <v>0.7573</v>
-      </c>
-      <c r="J29" s="15" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="L29" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M29" s="14" t="inlineStr">
+      <c r="E29" s="12" t="n">
+        <v>3318.93</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>0.7425</v>
+      </c>
+      <c r="H29" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I29" s="11" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="J29" s="14" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="L29" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M29" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N29" s="14" t="inlineStr">
+      <c r="N29" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O29" s="14" t="inlineStr">
+      <c r="O29" s="13" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P29" s="14" t="inlineStr">
+      <c r="P29" s="13" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q29" s="14" t="inlineStr">
+      <c r="Q29" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>富国中证500指数(LOF)</t>
         </is>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="10" t="n">
         <v>161017</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="11" t="n">
         <v>1.325</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="12" t="n">
         <v>2046.97</v>
       </c>
-      <c r="E30" s="13" t="n">
-        <v>3295.62</v>
-      </c>
-      <c r="F30" s="13" t="n">
-        <v>583.51</v>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H30" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I30" s="12" t="n">
-        <v>1.6142</v>
-      </c>
-      <c r="J30" s="15" t="n">
-        <v>-0.0036</v>
+      <c r="E30" s="12" t="n">
+        <v>3248.54</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>536.4299999999999</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>1.576</v>
+      </c>
+      <c r="H30" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I30" s="11" t="n">
+        <v>1.5833</v>
+      </c>
+      <c r="J30" s="14" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-11.87</v>
-      </c>
-      <c r="L30" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M30" s="14" t="inlineStr">
+        <v>14.94</v>
+      </c>
+      <c r="L30" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M30" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N30" s="14" t="inlineStr">
+      <c r="N30" s="13" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O30" s="14" t="inlineStr">
+      <c r="O30" s="13" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P30" s="14" t="inlineStr">
+      <c r="P30" s="13" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q30" s="14" t="inlineStr">
+      <c r="Q30" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接A</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="10" t="n">
         <v>1064</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="11" t="n">
         <v>0.5379</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="12" t="n">
         <v>5949.77</v>
       </c>
-      <c r="E31" s="13" t="n">
-        <v>3248.57</v>
-      </c>
-      <c r="F31" s="13" t="n">
-        <v>48.57</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>0.5475</v>
-      </c>
-      <c r="H31" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I31" s="12" t="n">
-        <v>0.5458</v>
-      </c>
-      <c r="J31" s="15" t="n">
-        <v>-0.0031</v>
+      <c r="E31" s="12" t="n">
+        <v>3174.79</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>-25.21</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>0.5304</v>
+      </c>
+      <c r="H31" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="n">
+        <v>0.5335</v>
+      </c>
+      <c r="J31" s="14" t="n">
+        <v>0.0059</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-10.11</v>
-      </c>
-      <c r="L31" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M31" s="14" t="inlineStr">
+        <v>18.44</v>
+      </c>
+      <c r="L31" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M31" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N31" s="14" t="inlineStr">
+      <c r="N31" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O31" s="14" t="inlineStr">
+      <c r="O31" s="13" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P31" s="14" t="inlineStr">
+      <c r="P31" s="13" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q31" s="14" t="inlineStr">
+      <c r="Q31" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>易方达安心回报债券A</t>
         </is>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="10" t="n">
         <v>110027</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="11" t="n">
         <v>1.6007</v>
       </c>
-      <c r="D32" s="13" t="n">
+      <c r="D32" s="12" t="n">
         <v>1743.65</v>
       </c>
-      <c r="E32" s="13" t="n">
-        <v>2948.51</v>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>157.51</v>
-      </c>
-      <c r="G32" s="12" t="n">
-        <v>1.694</v>
-      </c>
-      <c r="H32" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I32" s="12" t="n">
-        <v>1.6915</v>
-      </c>
-      <c r="J32" s="15" t="n">
-        <v>-0.0015</v>
+      <c r="E32" s="12" t="n">
+        <v>2943.28</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>152.28</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="H32" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>1.6874</v>
+      </c>
+      <c r="J32" s="14" t="n">
+        <v>0.0026</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-4.36</v>
-      </c>
-      <c r="L32" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M32" s="14" t="inlineStr">
+        <v>7.67</v>
+      </c>
+      <c r="L32" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M32" s="13" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N32" s="14" t="inlineStr">
+      <c r="N32" s="13" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O32" s="14" t="inlineStr">
+      <c r="O32" s="13" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P32" s="14" t="inlineStr">
+      <c r="P32" s="13" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q32" s="14" t="inlineStr">
+      <c r="Q32" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="10" t="n">
         <v>614</v>
       </c>
-      <c r="C33" s="12" t="n">
+      <c r="C33" s="11" t="n">
         <v>1.0612</v>
       </c>
-      <c r="D33" s="13" t="n">
+      <c r="D33" s="12" t="n">
         <v>1884.74</v>
       </c>
-      <c r="E33" s="13" t="n">
-        <v>2267.34</v>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>267.34</v>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14" t="inlineStr">
+      <c r="E33" s="12" t="n">
+        <v>2265.45</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>265.45</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="14" t="inlineStr">
+      <c r="I33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M33" s="14" t="inlineStr">
+      <c r="M33" s="13" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="N33" s="14" t="inlineStr">
+      <c r="N33" s="13" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="O33" s="14" t="inlineStr">
+      <c r="O33" s="13" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="P33" s="14" t="inlineStr">
+      <c r="P33" s="13" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="Q33" s="14" t="inlineStr">
+      <c r="Q33" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>易方达创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="10" t="n">
         <v>110026</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <v>1.319</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="12" t="n">
         <v>1213.09</v>
       </c>
-      <c r="E34" s="13" t="n">
-        <v>2148.62</v>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>548.62</v>
-      </c>
-      <c r="G34" s="12" t="n">
-        <v>1.7756</v>
-      </c>
-      <c r="H34" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I34" s="12" t="n">
-        <v>1.7714</v>
-      </c>
-      <c r="J34" s="15" t="n">
-        <v>-0.0024</v>
+      <c r="E34" s="12" t="n">
+        <v>2113.93</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>513.9299999999999</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-5.09</v>
-      </c>
-      <c r="L34" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M34" s="14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M34" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N34" s="14" t="inlineStr">
+      <c r="N34" s="13" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O34" s="14" t="inlineStr">
+      <c r="O34" s="13" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P34" s="14" t="inlineStr">
+      <c r="P34" s="13" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q34" s="14" t="inlineStr">
+      <c r="Q34" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="inlineStr">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>兴全可转债混合</t>
         </is>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="10" t="n">
         <v>340001</v>
       </c>
-      <c r="C35" s="12" t="n">
+      <c r="C35" s="11" t="n">
         <v>0.9816</v>
       </c>
-      <c r="D35" s="13" t="n">
+      <c r="D35" s="12" t="n">
         <v>1630.08</v>
       </c>
-      <c r="E35" s="13" t="n">
-        <v>1889.58</v>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>289.58</v>
-      </c>
-      <c r="G35" s="12" t="n">
-        <v>1.159</v>
-      </c>
-      <c r="H35" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I35" s="12" t="n">
-        <v>1.1574</v>
-      </c>
-      <c r="J35" s="15" t="n">
-        <v>-0.0013</v>
+      <c r="E35" s="12" t="n">
+        <v>1872.79</v>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>272.79</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>1.1437</v>
+      </c>
+      <c r="H35" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>1.1471</v>
+      </c>
+      <c r="J35" s="14" t="n">
+        <v>0.0029</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>-2.61</v>
-      </c>
-      <c r="L35" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M35" s="14" t="inlineStr">
+        <v>5.54</v>
+      </c>
+      <c r="L35" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M35" s="13" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N35" s="14" t="inlineStr">
+      <c r="N35" s="13" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O35" s="14" t="inlineStr">
+      <c r="O35" s="13" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P35" s="14" t="inlineStr">
+      <c r="P35" s="13" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q35" s="14" t="inlineStr">
+      <c r="Q35" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="10" t="n">
         <v>164906</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="11" t="n">
         <v>1.137</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="12" t="n">
         <v>1407.29</v>
       </c>
-      <c r="E36" s="13" t="n">
-        <v>1866.06</v>
-      </c>
-      <c r="F36" s="13" t="n">
-        <v>266.06</v>
-      </c>
-      <c r="G36" s="12" t="n">
-        <v>1.295</v>
-      </c>
-      <c r="H36" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
-      </c>
-      <c r="I36" s="12" t="n">
-        <v>1.2947</v>
-      </c>
-      <c r="J36" s="15" t="n">
-        <v>-0.0003</v>
+      <c r="E36" s="12" t="n">
+        <v>1805.55</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>205.55</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="H36" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="I36" s="11" t="n">
+        <v>1.2697</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0.0005</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="L36" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-09 05:00</t>
-        </is>
-      </c>
-      <c r="M36" s="14" t="inlineStr">
+        <v>0.99</v>
+      </c>
+      <c r="L36" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-19 05:00</t>
+        </is>
+      </c>
+      <c r="M36" s="13" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N36" s="14" t="inlineStr">
+      <c r="N36" s="13" t="inlineStr">
         <is>
           <t>海外互联</t>
         </is>
       </c>
-      <c r="O36" s="14" t="inlineStr">
+      <c r="O36" s="13" t="inlineStr">
         <is>
           <t>海外互联网</t>
         </is>
       </c>
-      <c r="P36" s="14" t="inlineStr">
+      <c r="P36" s="13" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="Q36" s="14" t="inlineStr">
+      <c r="Q36" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>华夏上证50ETF联接A</t>
         </is>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="10" t="n">
         <v>1051</v>
       </c>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="11" t="n">
         <v>0.8966</v>
       </c>
-      <c r="D37" s="13" t="n">
+      <c r="D37" s="12" t="n">
         <v>1338.46</v>
       </c>
-      <c r="E37" s="13" t="n">
-        <v>1379.95</v>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>179.95</v>
-      </c>
-      <c r="G37" s="12" t="n">
-        <v>1.037</v>
-      </c>
-      <c r="H37" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I37" s="12" t="n">
-        <v>1.0302</v>
-      </c>
-      <c r="J37" s="15" t="n">
-        <v>-0.0066</v>
+      <c r="E37" s="12" t="n">
+        <v>1365.22</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>165.22</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="L37" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M37" s="14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M37" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N37" s="14" t="inlineStr">
+      <c r="N37" s="13" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O37" s="14" t="inlineStr">
+      <c r="O37" s="13" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P37" s="14" t="inlineStr">
+      <c r="P37" s="13" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q37" s="14" t="inlineStr">
+      <c r="Q37" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="inlineStr">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>华宝标普油气上游股票</t>
         </is>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="10" t="n">
         <v>162411</v>
       </c>
-      <c r="C38" s="12" t="n">
+      <c r="C38" s="11" t="n">
         <v>0.4776</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="12" t="n">
         <v>3350.7</v>
       </c>
-      <c r="E38" s="13" t="n">
-        <v>1340.28</v>
-      </c>
-      <c r="F38" s="13" t="n">
-        <v>-259.72</v>
-      </c>
-      <c r="G38" s="12" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="H38" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
-      </c>
-      <c r="I38" s="12" t="n">
-        <v>0.3929</v>
-      </c>
-      <c r="J38" s="15" t="n">
-        <v>-0.0003</v>
+      <c r="E38" s="12" t="n">
+        <v>1303.42</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>-296.58</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H38" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="I38" s="11" t="n">
+        <v>0.3853</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0.0007</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="L38" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-09 05:00</t>
-        </is>
-      </c>
-      <c r="M38" s="14" t="inlineStr">
+        <v>1.01</v>
+      </c>
+      <c r="L38" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-19 05:00</t>
+        </is>
+      </c>
+      <c r="M38" s="13" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N38" s="14" t="inlineStr">
+      <c r="N38" s="13" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O38" s="14" t="inlineStr">
+      <c r="O38" s="13" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="P38" s="14" t="inlineStr">
+      <c r="P38" s="13" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q38" s="14" t="inlineStr">
+      <c r="Q38" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="inlineStr">
+      <c r="A39" s="9" t="inlineStr">
         <is>
           <t>华宝中证1000指数分级</t>
         </is>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="10" t="n">
         <v>162413</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="11" t="n">
         <v>0.8027</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D39" s="12" t="n">
         <v>1495.03</v>
       </c>
-      <c r="E39" s="13" t="n">
-        <v>1218.44</v>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>0.8174</v>
-      </c>
-      <c r="H39" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I39" s="12" t="n">
-        <v>0.8148</v>
-      </c>
-      <c r="J39" s="15" t="n">
-        <v>-0.0032</v>
+      <c r="E39" s="12" t="n">
+        <v>1190.64</v>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>0.7911</v>
+      </c>
+      <c r="H39" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>0.7964</v>
+      </c>
+      <c r="J39" s="14" t="n">
+        <v>0.0067</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-3.89</v>
-      </c>
-      <c r="L39" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M39" s="14" t="inlineStr">
+        <v>7.92</v>
+      </c>
+      <c r="L39" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M39" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N39" s="14" t="inlineStr">
+      <c r="N39" s="13" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O39" s="14" t="inlineStr">
+      <c r="O39" s="13" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="P39" s="14" t="inlineStr">
+      <c r="P39" s="13" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="Q39" s="14" t="inlineStr">
+      <c r="Q39" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="10" t="n">
         <v>1469</v>
       </c>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="11" t="n">
         <v>0.8885999999999999</v>
       </c>
-      <c r="D40" s="13" t="n">
+      <c r="D40" s="12" t="n">
         <v>900.35</v>
       </c>
-      <c r="E40" s="13" t="n">
-        <v>1001.81</v>
-      </c>
-      <c r="F40" s="13" t="n">
-        <v>201.81</v>
-      </c>
-      <c r="G40" s="12" t="n">
-        <v>1.1237</v>
-      </c>
-      <c r="H40" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I40" s="12" t="n">
-        <v>1.1124</v>
-      </c>
-      <c r="J40" s="15" t="n">
-        <v>-0.0101</v>
+      <c r="E40" s="12" t="n">
+        <v>987.86</v>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>187.86</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-10.17</v>
-      </c>
-      <c r="L40" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M40" s="14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M40" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N40" s="14" t="inlineStr">
+      <c r="N40" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O40" s="14" t="inlineStr">
+      <c r="O40" s="13" t="inlineStr">
         <is>
           <t>金融地产</t>
         </is>
       </c>
-      <c r="P40" s="14" t="inlineStr">
+      <c r="P40" s="13" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="Q40" s="14" t="inlineStr">
+      <c r="Q40" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>华安黄金易ETF联接A</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="10" t="n">
         <v>216</v>
       </c>
-      <c r="C41" s="12" t="n">
+      <c r="C41" s="11" t="n">
         <v>1.0903</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="12" t="n">
         <v>733.79</v>
       </c>
-      <c r="E41" s="13" t="n">
-        <v>889.86</v>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>89.86</v>
-      </c>
-      <c r="G41" s="12" t="n">
-        <v>1.2293</v>
-      </c>
-      <c r="H41" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I41" s="12" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="J41" s="15" t="n">
-        <v>-0.0132</v>
+      <c r="E41" s="12" t="n">
+        <v>888.25</v>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>88.25</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>1.2116</v>
+      </c>
+      <c r="H41" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I41" s="11" t="n">
+        <v>1.2145</v>
+      </c>
+      <c r="J41" s="14" t="n">
+        <v>0.0024</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>-11.96</v>
-      </c>
-      <c r="L41" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:30</t>
-        </is>
-      </c>
-      <c r="M41" s="14" t="inlineStr">
+        <v>2.13</v>
+      </c>
+      <c r="L41" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-19 02:30</t>
+        </is>
+      </c>
+      <c r="M41" s="13" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N41" s="14" t="inlineStr">
+      <c r="N41" s="13" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O41" s="14" t="inlineStr">
+      <c r="O41" s="13" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P41" s="14" t="inlineStr">
+      <c r="P41" s="13" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q41" s="14" t="inlineStr">
+      <c r="Q41" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="inlineStr">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>易方达证券公司分级</t>
         </is>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="10" t="n">
         <v>502010</v>
       </c>
-      <c r="C42" s="12" t="n">
+      <c r="C42" s="11" t="n">
         <v>0.8063</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="12" t="n">
         <v>496.13</v>
       </c>
-      <c r="E42" s="13" t="n">
-        <v>493.35</v>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>93.34999999999999</v>
-      </c>
-      <c r="G42" s="12" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="H42" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I42" s="12" t="n">
-        <v>0.9941</v>
-      </c>
-      <c r="J42" s="15" t="n">
-        <v>-0.0128</v>
+      <c r="E42" s="12" t="n">
+        <v>483.13</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>83.13</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="H42" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I42" s="11" t="n">
+        <v>0.9731</v>
+      </c>
+      <c r="J42" s="14" t="n">
+        <v>0.0125</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="L42" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M42" s="14" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="L42" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M42" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N42" s="14" t="inlineStr">
+      <c r="N42" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O42" s="14" t="inlineStr">
+      <c r="O42" s="13" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P42" s="14" t="inlineStr">
+      <c r="P42" s="13" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q42" s="14" t="inlineStr">
+      <c r="Q42" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>广发创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="10" t="n">
         <v>3765</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="11" t="n">
         <v>0.8121</v>
       </c>
-      <c r="D43" s="13" t="n">
+      <c r="D43" s="12" t="n">
         <v>492.57</v>
       </c>
-      <c r="E43" s="13" t="n">
-        <v>474.29</v>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="G43" s="12" t="n">
-        <v>0.9654</v>
-      </c>
-      <c r="H43" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I43" s="12" t="n">
-        <v>0.9631</v>
-      </c>
-      <c r="J43" s="15" t="n">
-        <v>-0.0024</v>
+      <c r="E43" s="12" t="n">
+        <v>466.8</v>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="H43" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I43" s="11" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="J43" s="14" t="n">
+        <v>0.0044</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="L43" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M43" s="14" t="inlineStr">
+        <v>2.02</v>
+      </c>
+      <c r="L43" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M43" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N43" s="14" t="inlineStr">
+      <c r="N43" s="13" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O43" s="14" t="inlineStr">
+      <c r="O43" s="13" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P43" s="14" t="inlineStr">
+      <c r="P43" s="13" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q43" s="14" t="inlineStr">
+      <c r="Q43" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>长信可转债债券A</t>
         </is>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="10" t="n">
         <v>519977</v>
       </c>
-      <c r="C44" s="12" t="n">
+      <c r="C44" s="11" t="n">
         <v>1.2011</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="12" t="n">
         <v>333.04</v>
       </c>
-      <c r="E44" s="13" t="n">
-        <v>454.56</v>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>54.56</v>
-      </c>
-      <c r="G44" s="12" t="n">
-        <v>1.366</v>
-      </c>
-      <c r="H44" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I44" s="12" t="n">
-        <v>1.3639</v>
-      </c>
-      <c r="J44" s="15" t="n">
-        <v>-0.0015</v>
+      <c r="E44" s="12" t="n">
+        <v>452.7</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I44" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="L44" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M44" s="14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M44" s="13" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N44" s="14" t="inlineStr">
+      <c r="N44" s="13" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O44" s="14" t="inlineStr">
+      <c r="O44" s="13" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P44" s="14" t="inlineStr">
+      <c r="P44" s="13" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q44" s="14" t="inlineStr">
+      <c r="Q44" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="inlineStr">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="C45" s="12" t="n">
+      <c r="C45" s="11" t="n">
         <v>1.2285</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="12" t="n">
         <v>325.61</v>
       </c>
-      <c r="E45" s="13" t="n">
-        <v>433.06</v>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>33.06</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>1.336</v>
-      </c>
-      <c r="H45" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I45" s="12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J45" s="15" t="n">
-        <v>-0.0045</v>
+      <c r="E45" s="12" t="n">
+        <v>426.22</v>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="H45" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I45" s="11" t="n">
+        <v>1.3089</v>
+      </c>
+      <c r="J45" s="14" t="n">
+        <v>0.0076</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="L45" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M45" s="14" t="inlineStr">
+        <v>3.22</v>
+      </c>
+      <c r="L45" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M45" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N45" s="14" t="inlineStr">
+      <c r="N45" s="13" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O45" s="14" t="inlineStr">
+      <c r="O45" s="13" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P45" s="14" t="inlineStr">
+      <c r="P45" s="13" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q45" s="14" t="inlineStr">
+      <c r="Q45" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="inlineStr">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="10" t="n">
         <v>71</v>
       </c>
-      <c r="C46" s="12" t="n">
+      <c r="C46" s="11" t="n">
         <v>1.452</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="12" t="n">
         <v>275.49</v>
       </c>
-      <c r="E46" s="13" t="n">
-        <v>424.36</v>
-      </c>
-      <c r="F46" s="13" t="n">
-        <v>24.36</v>
-      </c>
-      <c r="G46" s="12" t="n">
-        <v>1.552</v>
-      </c>
-      <c r="H46" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I46" s="12" t="n">
-        <v>1.5416</v>
-      </c>
-      <c r="J46" s="15" t="n">
-        <v>-0.0067</v>
+      <c r="E46" s="12" t="n">
+        <v>410.31</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <v>1.4711</v>
+      </c>
+      <c r="H46" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I46" s="11" t="n">
+        <v>1.4899</v>
+      </c>
+      <c r="J46" s="14" t="n">
+        <v>0.0128</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-2.87</v>
-      </c>
-      <c r="L46" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 16:00</t>
-        </is>
-      </c>
-      <c r="M46" s="14" t="inlineStr">
+        <v>5.18</v>
+      </c>
+      <c r="L46" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 16:00</t>
+        </is>
+      </c>
+      <c r="M46" s="13" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N46" s="14" t="inlineStr">
+      <c r="N46" s="13" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O46" s="14" t="inlineStr">
+      <c r="O46" s="13" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P46" s="14" t="inlineStr">
+      <c r="P46" s="13" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q46" s="14" t="inlineStr">
+      <c r="Q46" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="inlineStr">
+      <c r="A47" s="9" t="inlineStr">
         <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="10" t="n">
         <v>2903</v>
       </c>
-      <c r="C47" s="12" t="n">
+      <c r="C47" s="11" t="n">
         <v>0.829</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="12" t="n">
         <v>275.96</v>
       </c>
-      <c r="E47" s="13" t="n">
-        <v>241.57</v>
-      </c>
-      <c r="F47" s="13" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="G47" s="12" t="n">
-        <v>0.8784</v>
-      </c>
-      <c r="H47" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I47" s="12" t="n">
-        <v>0.8752</v>
-      </c>
-      <c r="J47" s="15" t="n">
-        <v>-0.0036</v>
+      <c r="E47" s="12" t="n">
+        <v>237.29</v>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <v>0.8559</v>
+      </c>
+      <c r="H47" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I47" s="11" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="J47" s="14" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="L47" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M47" s="14" t="inlineStr">
+        <v>1.1</v>
+      </c>
+      <c r="L47" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M47" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N47" s="14" t="inlineStr">
+      <c r="N47" s="13" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O47" s="14" t="inlineStr">
+      <c r="O47" s="13" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P47" s="14" t="inlineStr">
+      <c r="P47" s="13" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q47" s="14" t="inlineStr">
+      <c r="Q47" s="13" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>

--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -73,35 +73,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -402,22 +402,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="14.4"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="14.4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,25 +529,25 @@
         <v>17.18</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.428</v>
+        <v>1.443</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4478</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0033</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>13.45</v>
+        <v>4.71</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -598,25 +598,25 @@
         <v>-38.9</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.592</v>
+        <v>1.607</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6073</v>
+        <v>1.6221</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0094</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>12.72</v>
+        <v>12.56</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -667,25 +667,25 @@
         <v>84.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>1.4421</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>1.4591</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0</v>
+        <v>15.27</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:55</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -736,25 +736,25 @@
         <v>-30.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.904</v>
+        <v>0.9096</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9091</v>
+        <v>0.9222</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0056</v>
+        <v>0.0139</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>6.45</v>
+        <v>15.94</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -805,25 +805,25 @@
         <v>24.87</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8301</v>
+        <v>1.8461</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8461</v>
+        <v>1.8647</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>7.42</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -874,25 +874,25 @@
         <v>11.44</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0</v>
+        <v>2.1482</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0</v>
+        <v>2.1678</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -943,25 +943,25 @@
         <v>1.64</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9555</v>
+        <v>0.965</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9648</v>
+        <v>0.9802</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0097</v>
+        <v>0.0158</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>2.98</v>
+        <v>4.86</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1012,25 +1012,25 @@
         <v>-12.53</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9147</v>
+        <v>0.9246</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9201</v>
+        <v>0.9312</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0059</v>
+        <v>0.0071</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1081,25 +1081,25 @@
         <v>26.77</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7925</v>
+        <v>0.7966</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7955</v>
+        <v>0.8108</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0038</v>
+        <v>0.0178</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.64</v>
+        <v>3.02</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1150,25 +1150,25 @@
         <v>2.35</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.315</v>
+        <v>1.327</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.324</v>
+        <v>1.3394</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0068</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1219,25 +1219,25 @@
         <v>-1.87</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>0</v>
+        <v>1.4527</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0</v>
+        <v>1.4574</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1288,25 +1288,25 @@
         <v>-45.99</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.592</v>
+        <v>1.607</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.6073</v>
+        <v>1.6221</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0094</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>13.18</v>
+        <v>13.01</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1357,25 +1357,25 @@
         <v>18.66</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.428</v>
+        <v>1.443</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4478</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0033</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>12.74</v>
+        <v>4.46</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1426,25 +1426,25 @@
         <v>83.08</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0</v>
+        <v>1.4421</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>0</v>
+        <v>1.4591</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>0</v>
+        <v>15.57</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:55</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1495,25 +1495,25 @@
         <v>-31.4</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.904</v>
+        <v>0.9096</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9091</v>
+        <v>0.9222</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.0056</v>
+        <v>0.0139</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>6.25</v>
+        <v>15.44</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1564,25 +1564,25 @@
         <v>25.75</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.8301</v>
+        <v>1.8461</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8461</v>
+        <v>1.8647</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>7.54</v>
+        <v>8.77</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1633,25 +1633,25 @@
         <v>10.98</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0</v>
+        <v>2.1482</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0</v>
+        <v>2.1678</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1702,25 +1702,25 @@
         <v>1.93</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9555</v>
+        <v>0.965</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9648</v>
+        <v>0.9802</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.0097</v>
+        <v>0.0158</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>2.65</v>
+        <v>4.33</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1771,25 +1771,25 @@
         <v>-13.14</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.9147</v>
+        <v>0.9246</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9201</v>
+        <v>0.9312</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0059</v>
+        <v>0.0071</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1840,25 +1840,25 @@
         <v>6.12</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.315</v>
+        <v>1.327</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.324</v>
+        <v>1.3394</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.0068</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1909,25 +1909,25 @@
         <v>26.77</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.7925</v>
+        <v>0.7966</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.7955</v>
+        <v>0.8108</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.0038</v>
+        <v>0.0178</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>0.64</v>
+        <v>3.02</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1978,25 +1978,25 @@
         <v>-1.87</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>0</v>
+        <v>1.4527</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>0</v>
+        <v>1.4574</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2047,25 +2047,25 @@
         <v>237.49</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>1.0712</v>
+        <v>1.0763</v>
       </c>
       <c r="H24" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I24" s="11" t="n">
-        <v>1.0762</v>
+        <v>1.0929</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>0.0047</v>
+        <v>0.0154</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>48.49</v>
+        <v>160.98</v>
       </c>
       <c r="L24" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M24" s="13" t="inlineStr">
@@ -2116,25 +2116,25 @@
         <v>684.61</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>1.083</v>
+        <v>1.093</v>
       </c>
       <c r="H25" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I25" s="11" t="n">
-        <v>1.0934</v>
+        <v>1.1032</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>90.25</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="L25" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M25" s="13" t="inlineStr">
@@ -2185,25 +2185,25 @@
         <v>1105.14</v>
       </c>
       <c r="G26" s="11" t="n">
-        <v>0.8704</v>
+        <v>0.8748</v>
       </c>
       <c r="H26" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.8744</v>
+        <v>0.8905999999999999</v>
       </c>
       <c r="J26" s="14" t="n">
-        <v>0.0046</v>
+        <v>0.0181</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>27</v>
+        <v>106.65</v>
       </c>
       <c r="L26" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M26" s="13" t="inlineStr">
@@ -2254,25 +2254,25 @@
         <v>682.84</v>
       </c>
       <c r="G27" s="11" t="n">
-        <v>0.9555</v>
+        <v>0.965</v>
       </c>
       <c r="H27" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I27" s="11" t="n">
-        <v>0.9648</v>
+        <v>0.9802</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>0.0097</v>
+        <v>0.0158</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>56.69</v>
+        <v>92.66</v>
       </c>
       <c r="L27" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M27" s="13" t="inlineStr">
@@ -2323,25 +2323,25 @@
         <v>912.79</v>
       </c>
       <c r="G28" s="11" t="n">
-        <v>1.622</v>
+        <v>1.635</v>
       </c>
       <c r="H28" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I28" s="11" t="n">
-        <v>1.6343</v>
+        <v>1.6494</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>0.0076</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>33.95</v>
+        <v>39.75</v>
       </c>
       <c r="L28" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M28" s="13" t="inlineStr">
@@ -2392,25 +2392,25 @@
         <v>118.93</v>
       </c>
       <c r="G29" s="11" t="n">
-        <v>0.7425</v>
+        <v>0.7503</v>
       </c>
       <c r="H29" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.7501</v>
+        <v>0.7794</v>
       </c>
       <c r="J29" s="14" t="n">
-        <v>0.0103</v>
+        <v>0.0388</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>33.62</v>
+        <v>128.72</v>
       </c>
       <c r="L29" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M29" s="13" t="inlineStr">
@@ -2461,25 +2461,25 @@
         <v>536.4299999999999</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>1.576</v>
+        <v>1.587</v>
       </c>
       <c r="H30" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I30" s="11" t="n">
-        <v>1.5833</v>
+        <v>1.6114</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>0.0047</v>
+        <v>0.0154</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>14.94</v>
+        <v>49.95</v>
       </c>
       <c r="L30" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M30" s="13" t="inlineStr">
@@ -2530,25 +2530,25 @@
         <v>-25.21</v>
       </c>
       <c r="G31" s="11" t="n">
-        <v>0.5304</v>
+        <v>0.5336</v>
       </c>
       <c r="H31" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I31" s="11" t="n">
-        <v>0.5335</v>
+        <v>0.5434</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>0.0059</v>
+        <v>0.0183</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>18.44</v>
+        <v>58.31</v>
       </c>
       <c r="L31" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M31" s="13" t="inlineStr">
@@ -2599,25 +2599,25 @@
         <v>152.28</v>
       </c>
       <c r="G32" s="11" t="n">
-        <v>1.683</v>
+        <v>1.688</v>
       </c>
       <c r="H32" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1.6874</v>
+        <v>1.6942</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0.0026</v>
+        <v>0.0037</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>7.67</v>
+        <v>10.81</v>
       </c>
       <c r="L32" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M32" s="13" t="inlineStr">
@@ -2737,25 +2737,25 @@
         <v>513.9299999999999</v>
       </c>
       <c r="G34" s="11" t="n">
-        <v>0</v>
+        <v>1.7426</v>
       </c>
       <c r="H34" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I34" s="11" t="n">
-        <v>0</v>
+        <v>1.7881</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0</v>
+        <v>0.0261</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="L34" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M34" s="13" t="inlineStr">
@@ -2806,25 +2806,25 @@
         <v>272.79</v>
       </c>
       <c r="G35" s="11" t="n">
-        <v>1.1437</v>
+        <v>1.1489</v>
       </c>
       <c r="H35" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I35" s="11" t="n">
-        <v>1.1471</v>
+        <v>1.1518</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>0.0029</v>
+        <v>0.0026</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>5.54</v>
+        <v>4.73</v>
       </c>
       <c r="L35" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M35" s="13" t="inlineStr">
@@ -2875,15 +2875,15 @@
         <v>205.55</v>
       </c>
       <c r="G36" s="11" t="n">
-        <v>1.269</v>
+        <v>1.283</v>
       </c>
       <c r="H36" s="13" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I36" s="11" t="n">
-        <v>1.2697</v>
+        <v>1.2837</v>
       </c>
       <c r="J36" s="14" t="n">
         <v>0.0005</v>
@@ -2944,25 +2944,25 @@
         <v>165.22</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="H37" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I37" s="11" t="n">
-        <v>0</v>
+        <v>1.0255</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>0</v>
+        <v>7.36</v>
       </c>
       <c r="L37" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M37" s="13" t="inlineStr">
@@ -3013,15 +3013,15 @@
         <v>-296.58</v>
       </c>
       <c r="G38" s="11" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="H38" s="13" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I38" s="11" t="n">
-        <v>0.3853</v>
+        <v>0.3893</v>
       </c>
       <c r="J38" s="14" t="n">
         <v>0.0007</v>
@@ -3082,25 +3082,25 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>0.7911</v>
+        <v>0.7964</v>
       </c>
       <c r="H39" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I39" s="11" t="n">
-        <v>0.7964</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>0.0067</v>
+        <v>0.0171</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>7.92</v>
+        <v>20.33</v>
       </c>
       <c r="L39" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M39" s="13" t="inlineStr">
@@ -3151,25 +3151,25 @@
         <v>187.86</v>
       </c>
       <c r="G40" s="11" t="n">
-        <v>0</v>
+        <v>1.0972</v>
       </c>
       <c r="H40" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I40" s="11" t="n">
-        <v>0</v>
+        <v>1.1006</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="L40" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M40" s="13" t="inlineStr">
@@ -3220,25 +3220,25 @@
         <v>88.25</v>
       </c>
       <c r="G41" s="11" t="n">
-        <v>1.2116</v>
+        <v>1.2105</v>
       </c>
       <c r="H41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I41" s="11" t="n">
-        <v>1.2145</v>
+        <v>1.2191</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>0.0024</v>
+        <v>0.0071</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>2.13</v>
+        <v>6.31</v>
       </c>
       <c r="L41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 02:30</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M41" s="13" t="inlineStr">
@@ -3289,25 +3289,25 @@
         <v>83.13</v>
       </c>
       <c r="G42" s="11" t="n">
-        <v>0.961</v>
+        <v>0.9738</v>
       </c>
       <c r="H42" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I42" s="11" t="n">
-        <v>0.9731</v>
+        <v>0.9801</v>
       </c>
       <c r="J42" s="14" t="n">
-        <v>0.0125</v>
+        <v>0.0065</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>6</v>
+        <v>3.13</v>
       </c>
       <c r="L42" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M42" s="13" t="inlineStr">
@@ -3358,25 +3358,25 @@
         <v>66.8</v>
       </c>
       <c r="G43" s="11" t="n">
-        <v>0.9434</v>
+        <v>0.9477</v>
       </c>
       <c r="H43" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I43" s="11" t="n">
-        <v>0.9475</v>
+        <v>0.9725</v>
       </c>
       <c r="J43" s="14" t="n">
-        <v>0.0044</v>
+        <v>0.0261</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>2.02</v>
+        <v>12.22</v>
       </c>
       <c r="L43" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M43" s="13" t="inlineStr">
@@ -3427,25 +3427,25 @@
         <v>52.7</v>
       </c>
       <c r="G44" s="11" t="n">
-        <v>0</v>
+        <v>1.3593</v>
       </c>
       <c r="H44" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I44" s="11" t="n">
-        <v>0</v>
+        <v>1.3645</v>
       </c>
       <c r="J44" s="14" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="L44" s="13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M44" s="13" t="inlineStr">
@@ -3496,25 +3496,25 @@
         <v>26.22</v>
       </c>
       <c r="G45" s="11" t="n">
-        <v>1.299</v>
+        <v>1.309</v>
       </c>
       <c r="H45" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I45" s="11" t="n">
-        <v>1.3089</v>
+        <v>1.3206</v>
       </c>
       <c r="J45" s="14" t="n">
-        <v>0.0076</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>3.22</v>
+        <v>3.78</v>
       </c>
       <c r="L45" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M45" s="13" t="inlineStr">
@@ -3565,25 +3565,25 @@
         <v>10.31</v>
       </c>
       <c r="G46" s="11" t="n">
-        <v>1.4711</v>
+        <v>1.4894</v>
       </c>
       <c r="H46" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I46" s="11" t="n">
-        <v>1.4899</v>
+        <v>1.5072</v>
       </c>
       <c r="J46" s="14" t="n">
-        <v>0.0128</v>
+        <v>0.0119</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>5.18</v>
+        <v>4.9</v>
       </c>
       <c r="L46" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 16:00</t>
+          <t>2019-11-19 14:54</t>
         </is>
       </c>
       <c r="M46" s="13" t="inlineStr">
@@ -3634,25 +3634,25 @@
         <v>8.529999999999999</v>
       </c>
       <c r="G47" s="11" t="n">
-        <v>0.8559</v>
+        <v>0.8599</v>
       </c>
       <c r="H47" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I47" s="11" t="n">
-        <v>0.8599</v>
+        <v>0.8731</v>
       </c>
       <c r="J47" s="14" t="n">
-        <v>0.0047</v>
+        <v>0.0154</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>1.1</v>
+        <v>3.64</v>
       </c>
       <c r="L47" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:53</t>
         </is>
       </c>
       <c r="M47" s="13" t="inlineStr">
@@ -3682,6 +3682,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -523,7 +523,7 @@
         <v>981.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1416.33</v>
+        <v>1439.83</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>17.18</v>
@@ -537,17 +537,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4478</v>
+        <v>1.4488</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0033</v>
+        <v>0.004</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>4.71</v>
+        <v>5.69</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -592,7 +592,7 @@
         <v>831.6799999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1336.51</v>
+        <v>1359.7</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>-38.9</v>
@@ -606,17 +606,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6221</v>
+        <v>1.6232</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0094</v>
+        <v>0.0101</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>12.56</v>
+        <v>13.47</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -675,17 +675,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4591</v>
+        <v>1.463</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0118</v>
+        <v>0.0145</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>15.27</v>
+        <v>18.77</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:55</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -730,7 +730,7 @@
         <v>1265.09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1150.73</v>
+        <v>1172.7</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>-30.44</v>
@@ -744,17 +744,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9222</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0139</v>
+        <v>0.0146</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>15.94</v>
+        <v>16.83</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -799,7 +799,7 @@
         <v>463.76</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>856.15</v>
+        <v>874.01</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>24.87</v>
@@ -813,17 +813,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8647</v>
+        <v>1.8663</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0101</v>
+        <v>0.0109</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>8.630000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -868,7 +868,7 @@
         <v>372.46</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>800.12</v>
+        <v>819.13</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>11.44</v>
@@ -882,17 +882,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1678</v>
+        <v>2.169</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0091</v>
+        <v>0.0097</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>7.3</v>
+        <v>7.75</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -937,7 +937,7 @@
         <v>319.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308.7</v>
+        <v>325.4</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1.64</v>
@@ -951,17 +951,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9802</v>
+        <v>0.9812</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0158</v>
+        <v>0.0168</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>4.86</v>
+        <v>5.18</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1020,17 +1020,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9312</v>
+        <v>0.9321</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.0081</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1089,17 +1089,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8108</v>
+        <v>0.8114</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0178</v>
+        <v>0.0186</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1158,17 +1158,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3394</v>
+        <v>1.3402</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1227,17 +1227,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4574</v>
+        <v>1.4585</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0032</v>
+        <v>0.004</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1282,7 +1282,7 @@
         <v>861.49</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1384.41</v>
+        <v>1430.78</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>-45.99</v>
@@ -1296,17 +1296,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.6221</v>
+        <v>1.6232</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0094</v>
+        <v>0.0101</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>13.01</v>
+        <v>13.96</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1351,7 +1351,7 @@
         <v>930.05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1342.06</v>
+        <v>1389.07</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>18.66</v>
@@ -1365,17 +1365,17 @@
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.4478</v>
+        <v>1.4488</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.0033</v>
+        <v>0.004</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>4.46</v>
+        <v>5.39</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1434,17 +1434,17 @@
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4591</v>
+        <v>1.463</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.0118</v>
+        <v>0.0145</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>15.57</v>
+        <v>19.14</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:55</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1489,7 +1489,7 @@
         <v>1225.39</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1114.61</v>
+        <v>1158.57</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-31.4</v>
@@ -1503,17 +1503,17 @@
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9222</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.0139</v>
+        <v>0.0146</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>15.44</v>
+        <v>16.3</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1558,7 +1558,7 @@
         <v>471.32</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>870.1</v>
+        <v>905.8200000000001</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>25.75</v>
@@ -1572,17 +1572,17 @@
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8647</v>
+        <v>1.8663</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0101</v>
+        <v>0.0109</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>8.77</v>
+        <v>9.52</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1627,7 +1627,7 @@
         <v>337.88</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>725.83</v>
+        <v>763.84</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>10.98</v>
@@ -1641,17 +1641,17 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.1678</v>
+        <v>2.169</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.0091</v>
+        <v>0.0097</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>6.62</v>
+        <v>7.03</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1696,7 +1696,7 @@
         <v>285.14</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>275.16</v>
+        <v>308.55</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>1.93</v>
@@ -1710,17 +1710,17 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9802</v>
+        <v>0.9812</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.0158</v>
+        <v>0.0168</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>4.33</v>
+        <v>4.62</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1779,17 +1779,17 @@
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9312</v>
+        <v>0.9321</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.0081</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1848,17 +1848,17 @@
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3394</v>
+        <v>1.3402</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1917,17 +1917,17 @@
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.8108</v>
+        <v>0.8114</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.0178</v>
+        <v>0.0186</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1986,17 +1986,17 @@
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4574</v>
+        <v>1.4585</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0.0032</v>
+        <v>0.004</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2055,17 +2055,17 @@
         </is>
       </c>
       <c r="I24" s="11" t="n">
-        <v>1.0929</v>
+        <v>1.0936</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>0.0154</v>
+        <v>0.0161</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>160.98</v>
+        <v>167.77</v>
       </c>
       <c r="L24" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M24" s="13" t="inlineStr">
@@ -2124,17 +2124,17 @@
         </is>
       </c>
       <c r="I25" s="11" t="n">
-        <v>1.1032</v>
+        <v>1.104</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>88.51000000000001</v>
+        <v>95.45</v>
       </c>
       <c r="L25" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M25" s="13" t="inlineStr">
@@ -2193,17 +2193,17 @@
         </is>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.8905999999999999</v>
+        <v>0.8913</v>
       </c>
       <c r="J26" s="14" t="n">
-        <v>0.0181</v>
+        <v>0.0189</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>106.65</v>
+        <v>111.38</v>
       </c>
       <c r="L26" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M26" s="13" t="inlineStr">
@@ -2262,17 +2262,17 @@
         </is>
       </c>
       <c r="I27" s="11" t="n">
-        <v>0.9802</v>
+        <v>0.9812</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>0.0158</v>
+        <v>0.0168</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>92.66</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="L27" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M27" s="13" t="inlineStr">
@@ -2331,17 +2331,17 @@
         </is>
       </c>
       <c r="I28" s="11" t="n">
-        <v>1.6494</v>
+        <v>1.6505</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>39.75</v>
+        <v>42.78</v>
       </c>
       <c r="L28" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M28" s="13" t="inlineStr">
@@ -2400,17 +2400,17 @@
         </is>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.7794</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="J29" s="14" t="n">
-        <v>0.0388</v>
+        <v>0.0392</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>128.72</v>
+        <v>130.05</v>
       </c>
       <c r="L29" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M29" s="13" t="inlineStr">
@@ -2469,17 +2469,17 @@
         </is>
       </c>
       <c r="I30" s="11" t="n">
-        <v>1.6114</v>
+        <v>1.6125</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>0.0154</v>
+        <v>0.0161</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>49.95</v>
+        <v>52.2</v>
       </c>
       <c r="L30" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M30" s="13" t="inlineStr">
@@ -2538,17 +2538,17 @@
         </is>
       </c>
       <c r="I31" s="11" t="n">
-        <v>0.5434</v>
+        <v>0.5438</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>0.0183</v>
+        <v>0.0191</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>58.31</v>
+        <v>60.69</v>
       </c>
       <c r="L31" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M31" s="13" t="inlineStr">
@@ -2607,17 +2607,17 @@
         </is>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1.6942</v>
+        <v>1.6946</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0.0037</v>
+        <v>0.0039</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>10.81</v>
+        <v>11.51</v>
       </c>
       <c r="L32" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M32" s="13" t="inlineStr">
@@ -2745,17 +2745,17 @@
         </is>
       </c>
       <c r="I34" s="11" t="n">
-        <v>1.7881</v>
+        <v>1.7885</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0.0261</v>
+        <v>0.0263</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>55.2</v>
+        <v>55.68</v>
       </c>
       <c r="L34" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M34" s="13" t="inlineStr">
@@ -2814,17 +2814,17 @@
         </is>
       </c>
       <c r="I35" s="11" t="n">
-        <v>1.1518</v>
+        <v>1.1521</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>0.0026</v>
+        <v>0.0028</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>4.73</v>
+        <v>5.22</v>
       </c>
       <c r="L35" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M35" s="13" t="inlineStr">
@@ -2952,17 +2952,17 @@
         </is>
       </c>
       <c r="I37" s="11" t="n">
-        <v>1.0255</v>
+        <v>1.0264</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>0.0054</v>
+        <v>0.0063</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>7.36</v>
+        <v>8.57</v>
       </c>
       <c r="L37" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M37" s="13" t="inlineStr">
@@ -3090,17 +3090,17 @@
         </is>
       </c>
       <c r="I39" s="11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8105</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>0.0171</v>
+        <v>0.0178</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>20.33</v>
+        <v>21.08</v>
       </c>
       <c r="L39" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M39" s="13" t="inlineStr">
@@ -3159,17 +3159,17 @@
         </is>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.1006</v>
+        <v>1.1016</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>0.0031</v>
+        <v>0.004</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>3.06</v>
+        <v>3.96</v>
       </c>
       <c r="L40" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M40" s="13" t="inlineStr">
@@ -3228,17 +3228,17 @@
         </is>
       </c>
       <c r="I41" s="11" t="n">
-        <v>1.2191</v>
+        <v>1.2166</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>0.0071</v>
+        <v>0.005</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>6.31</v>
+        <v>4.48</v>
       </c>
       <c r="L41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:30</t>
         </is>
       </c>
       <c r="M41" s="13" t="inlineStr">
@@ -3297,17 +3297,17 @@
         </is>
       </c>
       <c r="I42" s="11" t="n">
-        <v>0.9801</v>
+        <v>0.9816</v>
       </c>
       <c r="J42" s="14" t="n">
-        <v>0.0065</v>
+        <v>0.008</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>3.13</v>
+        <v>3.87</v>
       </c>
       <c r="L42" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M42" s="13" t="inlineStr">
@@ -3366,17 +3366,17 @@
         </is>
       </c>
       <c r="I43" s="11" t="n">
-        <v>0.9725</v>
+        <v>0.9726</v>
       </c>
       <c r="J43" s="14" t="n">
-        <v>0.0261</v>
+        <v>0.0263</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>12.22</v>
+        <v>12.26</v>
       </c>
       <c r="L43" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M43" s="13" t="inlineStr">
@@ -3435,17 +3435,17 @@
         </is>
       </c>
       <c r="I44" s="11" t="n">
-        <v>1.3645</v>
+        <v>1.3649</v>
       </c>
       <c r="J44" s="14" t="n">
-        <v>0.0039</v>
+        <v>0.0041</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="L44" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M44" s="13" t="inlineStr">
@@ -3504,17 +3504,17 @@
         </is>
       </c>
       <c r="I45" s="11" t="n">
-        <v>1.3206</v>
+        <v>1.3214</v>
       </c>
       <c r="J45" s="14" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>3.78</v>
+        <v>4.04</v>
       </c>
       <c r="L45" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M45" s="13" t="inlineStr">
@@ -3573,17 +3573,17 @@
         </is>
       </c>
       <c r="I46" s="11" t="n">
-        <v>1.5072</v>
+        <v>1.5113</v>
       </c>
       <c r="J46" s="14" t="n">
-        <v>0.0119</v>
+        <v>0.0147</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>4.9</v>
+        <v>6.03</v>
       </c>
       <c r="L46" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:54</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M46" s="13" t="inlineStr">
@@ -3642,17 +3642,17 @@
         </is>
       </c>
       <c r="I47" s="11" t="n">
-        <v>0.8731</v>
+        <v>0.8737</v>
       </c>
       <c r="J47" s="14" t="n">
-        <v>0.0154</v>
+        <v>0.0161</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>3.64</v>
+        <v>3.81</v>
       </c>
       <c r="L47" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 14:53</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M47" s="13" t="inlineStr">

--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -40,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -62,6 +62,11 @@
         <fgColor rgb="00FF8361"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -73,35 +78,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="16">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,22 +408,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="14.4" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="14.4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,10 +529,10 @@
         <v>981.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1439.83</v>
+        <v>1445.72</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>17.18</v>
+        <v>23.07</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.443</v>
@@ -592,10 +598,10 @@
         <v>831.6799999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1359.7</v>
+        <v>1373.01</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-38.9</v>
+        <v>-25.59</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.607</v>
@@ -661,10 +667,10 @@
         <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1295.06</v>
+        <v>1318.32</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84.09</v>
+        <v>107.35</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.4421</v>
@@ -730,10 +736,10 @@
         <v>1265.09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1172.7</v>
+        <v>1189.52</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.44</v>
+        <v>-13.62</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9096</v>
@@ -799,10 +805,10 @@
         <v>463.76</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>874.01</v>
+        <v>883.33</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.87</v>
+        <v>34.19</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8461</v>
@@ -868,10 +874,10 @@
         <v>372.46</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>819.13</v>
+        <v>826.8</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11.44</v>
+        <v>19.11</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1482</v>
@@ -937,10 +943,10 @@
         <v>319.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325.4</v>
+        <v>330.49</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.64</v>
+        <v>6.73</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.965</v>
@@ -1006,10 +1012,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>198.69</v>
+        <v>201.42</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-12.53</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9246</v>
@@ -1075,10 +1081,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169.47</v>
+        <v>172.62</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26.77</v>
+        <v>29.92</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.7966</v>
@@ -1144,10 +1150,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82.39</v>
+        <v>83.2</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.327</v>
@@ -1213,10 +1219,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.21</v>
+        <v>35.35</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.87</v>
+        <v>-1.73</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4527</v>
@@ -1282,10 +1288,10 @@
         <v>861.49</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1430.78</v>
+        <v>1444.57</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-45.99</v>
+        <v>-32.2</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1.607</v>
@@ -1351,10 +1357,10 @@
         <v>930.05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1389.07</v>
+        <v>1394.65</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18.66</v>
+        <v>24.24</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>1.443</v>
@@ -1420,10 +1426,10 @@
         <v>915.97</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1320.92</v>
+        <v>1344.64</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>83.08</v>
+        <v>106.8</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1.4421</v>
@@ -1489,10 +1495,10 @@
         <v>1225.39</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1158.57</v>
+        <v>1174.87</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-31.4</v>
+        <v>-15.1</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0.9096</v>
@@ -1558,10 +1564,10 @@
         <v>471.32</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>905.8200000000001</v>
+        <v>915.3</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25.75</v>
+        <v>35.23</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1.8461</v>
@@ -1627,10 +1633,10 @@
         <v>337.88</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>763.84</v>
+        <v>770.8</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.98</v>
+        <v>17.94</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>2.1482</v>
@@ -1696,10 +1702,10 @@
         <v>285.14</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>308.55</v>
+        <v>313.08</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.93</v>
+        <v>6.46</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>0.965</v>
@@ -1765,10 +1771,10 @@
         <v>227.52</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210.36</v>
+        <v>213.25</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-13.14</v>
+        <v>-10.26</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0.9246</v>
@@ -1834,10 +1840,10 @@
         <v>142.1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>188.57</v>
+        <v>190.41</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.12</v>
+        <v>7.96</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>1.327</v>
@@ -1903,10 +1909,10 @@
         <v>212.74</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>169.47</v>
+        <v>172.62</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26.77</v>
+        <v>29.92</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0.7966</v>
@@ -1972,10 +1978,10 @@
         <v>24.24</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35.21</v>
+        <v>35.35</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.87</v>
+        <v>-1.73</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1.4527</v>
@@ -2041,10 +2047,10 @@
         <v>9697.57</v>
       </c>
       <c r="E24" s="12" t="n">
-        <v>10437.49</v>
+        <v>10600.41</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>237.49</v>
+        <v>400.41</v>
       </c>
       <c r="G24" s="11" t="n">
         <v>1.0763</v>
@@ -2090,7 +2096,7 @@
       </c>
       <c r="Q24" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2110,10 +2116,10 @@
         <v>8677.6</v>
       </c>
       <c r="E25" s="12" t="n">
-        <v>9484.610000000001</v>
+        <v>9580.07</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>684.61</v>
+        <v>780.0700000000001</v>
       </c>
       <c r="G25" s="11" t="n">
         <v>1.093</v>
@@ -2159,7 +2165,7 @@
       </c>
       <c r="Q25" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2179,10 +2185,10 @@
         <v>6750.28</v>
       </c>
       <c r="E26" s="12" t="n">
-        <v>5905.14</v>
+        <v>6015.17</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1105.14</v>
+        <v>1215.17</v>
       </c>
       <c r="G26" s="11" t="n">
         <v>0.8748</v>
@@ -2228,7 +2234,7 @@
       </c>
       <c r="Q26" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2248,10 +2254,10 @@
         <v>6096.21</v>
       </c>
       <c r="E27" s="12" t="n">
-        <v>5882.84</v>
+        <v>5979.77</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>682.84</v>
+        <v>779.77</v>
       </c>
       <c r="G27" s="11" t="n">
         <v>0.965</v>
@@ -2297,7 +2303,7 @@
       </c>
       <c r="Q27" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2317,10 +2323,10 @@
         <v>2760.12</v>
       </c>
       <c r="E28" s="12" t="n">
-        <v>4512.79</v>
+        <v>4551.43</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>912.79</v>
+        <v>951.4299999999999</v>
       </c>
       <c r="G28" s="11" t="n">
         <v>1.635</v>
@@ -2366,7 +2372,7 @@
       </c>
       <c r="Q28" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2386,10 +2392,10 @@
         <v>4423.48</v>
       </c>
       <c r="E29" s="12" t="n">
-        <v>3318.93</v>
+        <v>3443.67</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>118.93</v>
+        <v>243.67</v>
       </c>
       <c r="G29" s="11" t="n">
         <v>0.7503</v>
@@ -2435,7 +2441,7 @@
       </c>
       <c r="Q29" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2455,10 +2461,10 @@
         <v>2046.97</v>
       </c>
       <c r="E30" s="12" t="n">
-        <v>3248.54</v>
+        <v>3303.8</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>536.4299999999999</v>
+        <v>591.6900000000001</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>1.587</v>
@@ -2504,7 +2510,7 @@
       </c>
       <c r="Q30" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2524,10 +2530,10 @@
         <v>5949.77</v>
       </c>
       <c r="E31" s="12" t="n">
-        <v>3174.79</v>
+        <v>3230.13</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>-25.21</v>
+        <v>30.13</v>
       </c>
       <c r="G31" s="11" t="n">
         <v>0.5336</v>
@@ -2573,7 +2579,7 @@
       </c>
       <c r="Q31" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2593,10 +2599,10 @@
         <v>1743.65</v>
       </c>
       <c r="E32" s="12" t="n">
-        <v>2943.28</v>
+        <v>2960.71</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>152.28</v>
+        <v>169.71</v>
       </c>
       <c r="G32" s="11" t="n">
         <v>1.688</v>
@@ -2642,7 +2648,7 @@
       </c>
       <c r="Q32" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2662,10 +2668,10 @@
         <v>1884.74</v>
       </c>
       <c r="E33" s="12" t="n">
-        <v>2265.45</v>
+        <v>2263.57</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>265.45</v>
+        <v>263.57</v>
       </c>
       <c r="G33" s="11" t="n">
         <v>0</v>
@@ -2711,7 +2717,7 @@
       </c>
       <c r="Q33" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2731,10 +2737,10 @@
         <v>1213.09</v>
       </c>
       <c r="E34" s="12" t="n">
-        <v>2113.93</v>
+        <v>2168.88</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>513.9299999999999</v>
+        <v>568.88</v>
       </c>
       <c r="G34" s="11" t="n">
         <v>1.7426</v>
@@ -2780,7 +2786,7 @@
       </c>
       <c r="Q34" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2800,10 +2806,10 @@
         <v>1630.08</v>
       </c>
       <c r="E35" s="12" t="n">
-        <v>1872.79</v>
+        <v>1884.37</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>272.79</v>
+        <v>284.37</v>
       </c>
       <c r="G35" s="11" t="n">
         <v>1.1489</v>
@@ -2849,7 +2855,7 @@
       </c>
       <c r="Q35" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2869,10 +2875,10 @@
         <v>1407.29</v>
       </c>
       <c r="E36" s="12" t="n">
-        <v>1805.55</v>
+        <v>1795.7</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>205.55</v>
+        <v>195.7</v>
       </c>
       <c r="G36" s="11" t="n">
         <v>1.283</v>
@@ -2883,17 +2889,17 @@
         </is>
       </c>
       <c r="I36" s="11" t="n">
-        <v>1.2837</v>
+        <v>1.2797</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>0.99</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K36" s="15" t="n">
+        <v>-4.64</v>
       </c>
       <c r="L36" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 05:00</t>
+          <t>2019-11-20 05:00</t>
         </is>
       </c>
       <c r="M36" s="13" t="inlineStr">
@@ -2918,7 +2924,7 @@
       </c>
       <c r="Q36" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2938,10 +2944,10 @@
         <v>1338.46</v>
       </c>
       <c r="E37" s="12" t="n">
-        <v>1365.22</v>
+        <v>1374.59</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>165.22</v>
+        <v>174.59</v>
       </c>
       <c r="G37" s="11" t="n">
         <v>1.02</v>
@@ -2987,7 +2993,7 @@
       </c>
       <c r="Q37" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3007,10 +3013,10 @@
         <v>3350.7</v>
       </c>
       <c r="E38" s="12" t="n">
-        <v>1303.42</v>
+        <v>1266.56</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>-296.58</v>
+        <v>-333.44</v>
       </c>
       <c r="G38" s="11" t="n">
         <v>0.389</v>
@@ -3021,17 +3027,17 @@
         </is>
       </c>
       <c r="I38" s="11" t="n">
-        <v>0.3893</v>
+        <v>0.3876</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>1.01</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K38" s="15" t="n">
+        <v>-4.69</v>
       </c>
       <c r="L38" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 05:00</t>
+          <t>2019-11-20 05:00</t>
         </is>
       </c>
       <c r="M38" s="13" t="inlineStr">
@@ -3056,7 +3062,7 @@
       </c>
       <c r="Q38" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3076,10 +3082,10 @@
         <v>1495.03</v>
       </c>
       <c r="E39" s="12" t="n">
-        <v>1190.64</v>
+        <v>1211.87</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>-9.359999999999999</v>
+        <v>11.87</v>
       </c>
       <c r="G39" s="11" t="n">
         <v>0.7964</v>
@@ -3125,7 +3131,7 @@
       </c>
       <c r="Q39" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3145,10 +3151,10 @@
         <v>900.35</v>
       </c>
       <c r="E40" s="12" t="n">
-        <v>987.86</v>
+        <v>991.8200000000001</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>187.86</v>
+        <v>191.82</v>
       </c>
       <c r="G40" s="11" t="n">
         <v>1.0972</v>
@@ -3194,7 +3200,7 @@
       </c>
       <c r="Q40" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3214,31 +3220,31 @@
         <v>733.79</v>
       </c>
       <c r="E41" s="12" t="n">
-        <v>888.25</v>
+        <v>892.65</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>88.25</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="G41" s="11" t="n">
-        <v>1.2105</v>
+        <v>1.2165</v>
       </c>
       <c r="H41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I41" s="11" t="n">
-        <v>1.2166</v>
+        <v>1.2151</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>4.48</v>
+        <v>-0.0011</v>
+      </c>
+      <c r="K41" s="15" t="n">
+        <v>-1.03</v>
       </c>
       <c r="L41" s="13" t="inlineStr">
         <is>
-          <t>2019-11-19 15:30</t>
+          <t>2019-11-20 02:30</t>
         </is>
       </c>
       <c r="M41" s="13" t="inlineStr">
@@ -3263,7 +3269,7 @@
       </c>
       <c r="Q41" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3283,10 +3289,10 @@
         <v>496.13</v>
       </c>
       <c r="E42" s="12" t="n">
-        <v>483.13</v>
+        <v>487.05</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>83.13</v>
+        <v>87.05</v>
       </c>
       <c r="G42" s="11" t="n">
         <v>0.9738</v>
@@ -3332,7 +3338,7 @@
       </c>
       <c r="Q42" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3352,10 +3358,10 @@
         <v>492.57</v>
       </c>
       <c r="E43" s="12" t="n">
-        <v>466.8</v>
+        <v>478.53</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>66.8</v>
+        <v>78.53</v>
       </c>
       <c r="G43" s="11" t="n">
         <v>0.9477</v>
@@ -3401,7 +3407,7 @@
       </c>
       <c r="Q43" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3421,10 +3427,10 @@
         <v>333.04</v>
       </c>
       <c r="E44" s="12" t="n">
-        <v>452.7</v>
+        <v>454.49</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>52.7</v>
+        <v>54.49</v>
       </c>
       <c r="G44" s="11" t="n">
         <v>1.3593</v>
@@ -3470,7 +3476,7 @@
       </c>
       <c r="Q44" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3490,10 +3496,10 @@
         <v>325.61</v>
       </c>
       <c r="E45" s="12" t="n">
-        <v>426.22</v>
+        <v>430.45</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>26.22</v>
+        <v>30.45</v>
       </c>
       <c r="G45" s="11" t="n">
         <v>1.309</v>
@@ -3539,7 +3545,7 @@
       </c>
       <c r="Q45" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3559,10 +3565,10 @@
         <v>275.49</v>
       </c>
       <c r="E46" s="12" t="n">
-        <v>410.31</v>
+        <v>416.26</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>10.31</v>
+        <v>16.26</v>
       </c>
       <c r="G46" s="11" t="n">
         <v>1.4894</v>
@@ -3608,7 +3614,7 @@
       </c>
       <c r="Q46" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -3628,10 +3634,10 @@
         <v>275.96</v>
       </c>
       <c r="E47" s="12" t="n">
-        <v>237.29</v>
+        <v>241.02</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>8.529999999999999</v>
+        <v>12.26</v>
       </c>
       <c r="G47" s="11" t="n">
         <v>0.8599</v>
@@ -3677,11 +3683,11 @@
       </c>
       <c r="Q47" s="13" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母收益估算.xlsx
@@ -523,37 +523,37 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4259</v>
+        <v>1.4262</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>997.72</v>
+        <v>1013.26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1428.74</v>
+        <v>1441.87</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>6.08</v>
+        <v>-3.23</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.449</v>
+        <v>1.43</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4231</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0048</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-17.16</v>
+        <v>-6.99</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -592,37 +592,37 @@
         <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6533</v>
+        <v>1.6528</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>845.95</v>
+        <v>859.89</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1362.83</v>
+        <v>1380.12</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-35.77</v>
+        <v>-41.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.623</v>
+        <v>1.608</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6107</v>
+        <v>1.6051</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0076</v>
+        <v>-0.0018</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-10.41</v>
+        <v>-2.49</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -667,31 +667,31 @@
         <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1310.06</v>
+        <v>1285.63</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99.09</v>
+        <v>74.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.468</v>
+        <v>1.4316</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4576</v>
+        <v>1.4043</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0071</v>
+        <v>-0.0191</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-9.34</v>
+        <v>-24.52</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -730,37 +730,37 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9335</v>
+        <v>0.9331</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1288.86</v>
+        <v>1312.53</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1182.92</v>
+        <v>1197.29</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.22</v>
+        <v>-27.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9091</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9176</v>
+        <v>0.9123</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-6.83</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>4.2</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -799,37 +799,37 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.794</v>
+        <v>1.7954</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>473.31</v>
+        <v>482.9</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>874.25</v>
+        <v>885.64</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.11</v>
+        <v>18.65</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8662</v>
+        <v>1.84</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8341</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0103</v>
+        <v>-0.0032</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-9.039999999999999</v>
+        <v>-2.85</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -868,37 +868,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1188</v>
+        <v>2.1198</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>381.21</v>
+        <v>389.84</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>818.38</v>
+        <v>830.79</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10.69</v>
+        <v>4.39</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1688</v>
+        <v>2.1385</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1461</v>
+        <v>2.1312</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0105</v>
+        <v>-0.0034</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-8.65</v>
+        <v>-2.85</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -937,37 +937,37 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.961</v>
+        <v>0.9608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>336.9</v>
+        <v>354.88</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328.85</v>
+        <v>334.16</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.09</v>
+        <v>-6.83</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9809</v>
+        <v>0.9469</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9415</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-1.62</v>
+        <v>-1.92</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1012,31 +1012,31 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>200.32</v>
+        <v>200.13</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-10.9</v>
+        <v>-11.09</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9373</v>
+        <v>0.9326</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9304</v>
+        <v>0.9272</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0074</v>
+        <v>-0.0058</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-1.48</v>
+        <v>-1.16</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1081,31 +1081,31 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172.87</v>
+        <v>162.07</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30.17</v>
+        <v>19.37</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8114</v>
+        <v>0.7718</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.7615</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0.26</v>
+        <v>-0.0134</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-2.19</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1150,31 +1150,31 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82.58</v>
+        <v>80.22</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.54</v>
+        <v>0.18</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.34</v>
+        <v>1.317</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3293</v>
+        <v>1.2917</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.008</v>
+        <v>-0.0192</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-0.66</v>
+        <v>-1.57</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1219,31 +1219,31 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.95</v>
+        <v>34.74</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.13</v>
+        <v>-2.34</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4584</v>
+        <v>1.44</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.433</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0048</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.42</v>
+        <v>-0.17</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1282,37 +1282,37 @@
         <v>90010</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>1.6593</v>
+        <v>1.6581</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>890.02</v>
+        <v>917.91</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1433.82</v>
+        <v>1473.25</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-42.95</v>
+        <v>-48.78</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.623</v>
+        <v>1.608</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.6107</v>
+        <v>1.6051</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0076</v>
+        <v>-0.0018</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-10.95</v>
+        <v>-2.66</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1351,37 +1351,37 @@
         <v>519671</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.4239</v>
+        <v>1.4245</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>962.45</v>
+        <v>993.53</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1378.23</v>
+        <v>1413.79</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.82</v>
+        <v>-1.52</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1.449</v>
+        <v>1.43</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4231</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0048</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-16.55</v>
+        <v>-6.86</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1426,31 +1426,31 @@
         <v>915.97</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1336.22</v>
+        <v>1311.3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98.38</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.468</v>
+        <v>1.4316</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.4576</v>
+        <v>1.4043</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>-0.0071</v>
+        <v>-0.0191</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-9.529999999999999</v>
+        <v>-25.01</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1489,37 +1489,37 @@
         <v>3318</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.9348</v>
+        <v>0.9339</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1272.96</v>
+        <v>1320.32</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1168.32</v>
+        <v>1204.4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-21.65</v>
+        <v>-28.71</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9091</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9176</v>
+        <v>0.9123</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-6.75</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>4.23</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1558,37 +1558,37 @@
         <v>70023</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1.7945</v>
+        <v>1.7969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>490.43</v>
+        <v>509.62</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>905.87</v>
+        <v>934.64</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25.8</v>
+        <v>18.88</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.8662</v>
+        <v>1.84</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8341</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>-0.0103</v>
+        <v>-0.0032</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-9.369999999999999</v>
+        <v>-3.01</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1627,37 +1627,37 @@
         <v>530015</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>2.1185</v>
+        <v>2.1207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>355.38</v>
+        <v>372.65</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>762.9299999999999</v>
+        <v>794.15</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.07</v>
+        <v>3.86</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2.1688</v>
+        <v>2.1385</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>2.1461</v>
+        <v>2.1312</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>-0.0105</v>
+        <v>-0.0034</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-8.07</v>
+        <v>-2.72</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1696,37 +1696,37 @@
         <v>968</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>319.14</v>
+        <v>355.1</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>311.51</v>
+        <v>334.36</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.89</v>
+        <v>-6.7</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9809</v>
+        <v>0.9469</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9415</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>-1.53</v>
+        <v>-1.92</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1771,31 +1771,31 @@
         <v>227.52</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212.09</v>
+        <v>211.89</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.42</v>
+        <v>-11.62</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.9373</v>
+        <v>0.9326</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9304</v>
+        <v>0.9272</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>-0.0074</v>
+        <v>-0.0058</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-1.57</v>
+        <v>-1.23</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1840,31 +1840,31 @@
         <v>142.1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>188.99</v>
+        <v>183.59</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.54</v>
+        <v>1.14</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.34</v>
+        <v>1.317</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3293</v>
+        <v>1.2917</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>-0.008</v>
+        <v>-0.0192</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-1.52</v>
+        <v>-3.6</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1909,31 +1909,31 @@
         <v>212.74</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172.87</v>
+        <v>162.07</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30.17</v>
+        <v>19.37</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.8114</v>
+        <v>0.7718</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.7615</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>0.26</v>
+        <v>-0.0134</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-2.19</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -1978,31 +1978,31 @@
         <v>24.24</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34.95</v>
+        <v>34.74</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.13</v>
+        <v>-2.34</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1.4584</v>
+        <v>1.44</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.433</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0048</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-0.42</v>
+        <v>-0.17</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2047,31 +2047,31 @@
         <v>9697.57</v>
       </c>
       <c r="E24" s="13" t="n">
-        <v>10544.16</v>
+        <v>10433.61</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>344.16</v>
+        <v>233.61</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>1.0931</v>
+        <v>1.0747</v>
       </c>
       <c r="H24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I24" s="12" t="n">
-        <v>1.0871</v>
+        <v>1.0759</v>
       </c>
       <c r="J24" s="15" t="n">
-        <v>-0.0055</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-58.19</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>11.64</v>
       </c>
       <c r="L24" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M24" s="14" t="inlineStr">
@@ -2116,31 +2116,31 @@
         <v>8677.6</v>
       </c>
       <c r="E25" s="13" t="n">
-        <v>9501.969999999999</v>
+        <v>9449.9</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>701.97</v>
+        <v>649.9</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>1.104</v>
+        <v>1.092</v>
       </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I25" s="12" t="n">
-        <v>1.0956</v>
+        <v>1.09</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>-0.0076</v>
+        <v>-0.0018</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-72.89</v>
+        <v>-17.36</v>
       </c>
       <c r="L25" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M25" s="14" t="inlineStr">
@@ -2172,44 +2172,44 @@
     <row r="26">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B26" s="11" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E26" s="13" t="n">
-        <v>6008.42</v>
+        <v>5740.19</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>1208.42</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>0.8911</v>
+        <v>0.9469</v>
       </c>
       <c r="H26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I26" s="12" t="n">
-        <v>0.8902</v>
+        <v>0.9415</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>-0.001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-6.08</v>
+        <v>-32.92</v>
       </c>
       <c r="L26" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M26" s="14" t="inlineStr">
@@ -2224,12 +2224,12 @@
       </c>
       <c r="O26" s="14" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P26" s="14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q26" s="14" t="inlineStr">
@@ -2241,44 +2241,44 @@
     <row r="27">
       <c r="A27" s="10" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>968</v>
+        <v>1180</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>0.853</v>
+        <v>0.7111</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>6096.21</v>
+        <v>6750.28</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>5950.51</v>
+        <v>5620.28</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>750.51</v>
+        <v>820.28</v>
       </c>
       <c r="G27" s="12" t="n">
-        <v>0.9809</v>
+        <v>0.8475</v>
       </c>
       <c r="H27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I27" s="12" t="n">
-        <v>0.9761</v>
+        <v>0.8324</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>-0.0048</v>
+        <v>-0.0178</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-29.26</v>
+        <v>-101.93</v>
       </c>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M27" s="14" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="O27" s="14" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P27" s="14" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q27" s="14" t="inlineStr">
@@ -2323,31 +2323,31 @@
         <v>2760.12</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>4504.51</v>
+        <v>4405.15</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>904.51</v>
+        <v>805.15</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.649</v>
+        <v>1.609</v>
       </c>
       <c r="H28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I28" s="12" t="n">
-        <v>1.6335</v>
+        <v>1.5957</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>-0.0094</v>
+        <v>-0.0083</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-42.78</v>
+        <v>-36.71</v>
       </c>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M28" s="14" t="inlineStr">
@@ -2392,31 +2392,31 @@
         <v>4423.48</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>3418.02</v>
+        <v>3324.68</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>218.02</v>
+        <v>124.68</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>0.7785</v>
+        <v>0.7483</v>
       </c>
       <c r="H29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I29" s="12" t="n">
-        <v>0.7725</v>
+        <v>0.7518</v>
       </c>
       <c r="J29" s="15" t="n">
-        <v>-0.0077</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>-26.54</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>15.48</v>
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M29" s="14" t="inlineStr">
@@ -2461,31 +2461,31 @@
         <v>2046.97</v>
       </c>
       <c r="E30" s="13" t="n">
-        <v>3285.38</v>
+        <v>3254.68</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>573.27</v>
+        <v>542.5700000000001</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>1.614</v>
+        <v>1.586</v>
       </c>
       <c r="H30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I30" s="12" t="n">
-        <v>1.6051</v>
+        <v>1.5878</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>-0.0055</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-18.22</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>3.68</v>
       </c>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M30" s="14" t="inlineStr">
@@ -2530,31 +2530,31 @@
         <v>5949.77</v>
       </c>
       <c r="E31" s="13" t="n">
-        <v>3206.33</v>
+        <v>3234.88</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>6.33</v>
+        <v>34.88</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>0.5429</v>
+        <v>0.5426</v>
       </c>
       <c r="H31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I31" s="12" t="n">
-        <v>0.5384</v>
+        <v>0.5437</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-26.77</v>
+        <v>0.002</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>6.54</v>
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M31" s="14" t="inlineStr">
@@ -2599,31 +2599,31 @@
         <v>1743.65</v>
       </c>
       <c r="E32" s="13" t="n">
-        <v>2951.99</v>
+        <v>2924.1</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>160.99</v>
+        <v>133.1</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>1.698</v>
+        <v>1.681</v>
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I32" s="12" t="n">
-        <v>1.6944</v>
+        <v>1.6791</v>
       </c>
       <c r="J32" s="15" t="n">
-        <v>-0.0021</v>
+        <v>-0.0011</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-6.28</v>
+        <v>-3.31</v>
       </c>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M32" s="14" t="inlineStr">
@@ -2668,10 +2668,10 @@
         <v>1884.74</v>
       </c>
       <c r="E33" s="13" t="n">
-        <v>2271.11</v>
+        <v>2278.65</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>271.11</v>
+        <v>278.65</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>0</v>
@@ -2737,31 +2737,31 @@
         <v>1213.09</v>
       </c>
       <c r="E34" s="13" t="n">
-        <v>2157.72</v>
+        <v>2092.82</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>557.72</v>
+        <v>492.82</v>
       </c>
       <c r="G34" s="12" t="n">
-        <v>1.7879</v>
+        <v>1.7339</v>
       </c>
       <c r="H34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I34" s="12" t="n">
-        <v>1.7787</v>
+        <v>1.7252</v>
       </c>
       <c r="J34" s="15" t="n">
-        <v>-0.0051</v>
+        <v>-0.005</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-11.16</v>
+        <v>-10.55</v>
       </c>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M34" s="14" t="inlineStr">
@@ -2806,31 +2806,31 @@
         <v>1630.08</v>
       </c>
       <c r="E35" s="13" t="n">
-        <v>1878.17</v>
+        <v>1864.15</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>278.17</v>
+        <v>264.15</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>1.156</v>
+        <v>1.1455</v>
       </c>
       <c r="H35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I35" s="12" t="n">
-        <v>1.1535</v>
+        <v>1.1446</v>
       </c>
       <c r="J35" s="15" t="n">
-        <v>-0.0022</v>
+        <v>-0.0008</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>-4.08</v>
+        <v>-1.47</v>
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M35" s="14" t="inlineStr">
@@ -2875,31 +2875,31 @@
         <v>1407.29</v>
       </c>
       <c r="E36" s="13" t="n">
-        <v>1795.7</v>
+        <v>1854.8</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>195.7</v>
+        <v>254.8</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>1.276</v>
+        <v>1.318</v>
       </c>
       <c r="H36" s="14" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I36" s="12" t="n">
-        <v>1.2719</v>
+        <v>1.3143</v>
       </c>
       <c r="J36" s="15" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-5.77</v>
+        <v>-5.21</v>
       </c>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M36" s="14" t="inlineStr">
@@ -2944,31 +2944,31 @@
         <v>1338.46</v>
       </c>
       <c r="E37" s="13" t="n">
-        <v>1359.87</v>
+        <v>1327.75</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>159.87</v>
+        <v>127.75</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>1.027</v>
+        <v>1.004</v>
       </c>
       <c r="H37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I37" s="12" t="n">
-        <v>1.0164</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="J37" s="15" t="n">
-        <v>-0.0104</v>
+        <v>-0.0116</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-14.19</v>
+        <v>-15.53</v>
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M37" s="14" t="inlineStr">
@@ -3013,31 +3013,31 @@
         <v>3350.7</v>
       </c>
       <c r="E38" s="13" t="n">
-        <v>1229.7</v>
+        <v>1249.81</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>-370.3</v>
+        <v>-350.19</v>
       </c>
       <c r="G38" s="12" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="H38" s="14" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I38" s="12" t="n">
-        <v>0.3764</v>
+        <v>0.3716</v>
       </c>
       <c r="J38" s="15" t="n">
-        <v>-0.0043</v>
+        <v>-0.0038</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-5.36</v>
+        <v>-4.69</v>
       </c>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M38" s="14" t="inlineStr">
@@ -3082,31 +3082,31 @@
         <v>1495.03</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>1206.33</v>
+        <v>1179.27</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>6.33</v>
+        <v>-20.73</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.8106</v>
+        <v>0.7893</v>
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I39" s="12" t="n">
-        <v>0.8067</v>
+        <v>0.7886</v>
       </c>
       <c r="J39" s="15" t="n">
-        <v>-0.0048</v>
+        <v>-0.0009</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-5.83</v>
+        <v>-1.05</v>
       </c>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M39" s="14" t="inlineStr">
@@ -3151,31 +3151,31 @@
         <v>900.35</v>
       </c>
       <c r="E40" s="13" t="n">
-        <v>978.14</v>
+        <v>968.41</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>178.14</v>
+        <v>168.41</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>1.1016</v>
+        <v>1.0792</v>
       </c>
       <c r="H40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I40" s="12" t="n">
-        <v>1.0858</v>
+        <v>1.0755</v>
       </c>
       <c r="J40" s="15" t="n">
-        <v>-0.0143</v>
+        <v>-0.0034</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-14.23</v>
+        <v>-3.33</v>
       </c>
       <c r="L40" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M40" s="14" t="inlineStr">
@@ -3220,31 +3220,31 @@
         <v>733.79</v>
       </c>
       <c r="E41" s="13" t="n">
-        <v>895.73</v>
+        <v>890.16</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>95.73</v>
+        <v>90.16</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>1.2165</v>
+        <v>1.2093</v>
       </c>
       <c r="H41" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I41" s="12" t="n">
-        <v>1.2137</v>
+        <v>1.2133</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>-0.0023</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-2.05</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>2.94</v>
       </c>
       <c r="L41" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21 02:30</t>
+          <t>2019-11-29 15:30</t>
         </is>
       </c>
       <c r="M41" s="14" t="inlineStr">
@@ -3289,31 +3289,31 @@
         <v>496.13</v>
       </c>
       <c r="E42" s="13" t="n">
-        <v>479.7</v>
+        <v>478.66</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>79.7</v>
+        <v>78.66</v>
       </c>
       <c r="G42" s="12" t="n">
-        <v>0.9817</v>
+        <v>0.9611</v>
       </c>
       <c r="H42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I42" s="12" t="n">
-        <v>0.9666</v>
+        <v>0.965</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>-0.0154</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-7.49</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>1.93</v>
       </c>
       <c r="L42" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M42" s="14" t="inlineStr">
@@ -3358,31 +3358,31 @@
         <v>492.57</v>
       </c>
       <c r="E43" s="13" t="n">
-        <v>475.97</v>
+        <v>461.63</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>75.97</v>
+        <v>61.63</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>0.9715</v>
+        <v>0.9417</v>
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I43" s="12" t="n">
-        <v>0.9665</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>-0.0051</v>
+        <v>-0.005</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-2.46</v>
+        <v>-2.32</v>
       </c>
       <c r="L43" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M43" s="14" t="inlineStr">
@@ -3427,31 +3427,31 @@
         <v>333.04</v>
       </c>
       <c r="E44" s="13" t="n">
-        <v>453.5</v>
+        <v>451.56</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>53.5</v>
+        <v>51.56</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>1.3647</v>
+        <v>1.3568</v>
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I44" s="12" t="n">
-        <v>1.3604</v>
+        <v>1.3554</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>-0.0032</v>
+        <v>-0.001</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-1.43</v>
+        <v>-0.47</v>
       </c>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M44" s="14" t="inlineStr">
@@ -3496,31 +3496,31 @@
         <v>325.61</v>
       </c>
       <c r="E45" s="13" t="n">
-        <v>426.22</v>
+        <v>418.08</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>26.22</v>
+        <v>18.08</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>1.322</v>
+        <v>1.295</v>
       </c>
       <c r="H45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I45" s="12" t="n">
-        <v>1.3096</v>
+        <v>1.2843</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>-0.0094</v>
+        <v>-0.0083</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>-4.04</v>
+        <v>-3.48</v>
       </c>
       <c r="L45" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M45" s="14" t="inlineStr">
@@ -3565,31 +3565,31 @@
         <v>275.49</v>
       </c>
       <c r="E46" s="13" t="n">
-        <v>413.62</v>
+        <v>406.81</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>13.62</v>
+        <v>6.81</v>
       </c>
       <c r="G46" s="12" t="n">
-        <v>1.511</v>
+        <v>1.4767</v>
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I46" s="12" t="n">
-        <v>1.5002</v>
+        <v>1.4482</v>
       </c>
       <c r="J46" s="15" t="n">
-        <v>-0.0072</v>
+        <v>-0.0193</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-2.98</v>
+        <v>-7.85</v>
       </c>
       <c r="L46" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M46" s="14" t="inlineStr">
@@ -3634,31 +3634,31 @@
         <v>275.96</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>239.72</v>
+        <v>237.21</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>10.96</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G47" s="12" t="n">
-        <v>0.8734</v>
+        <v>0.8587</v>
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I47" s="12" t="n">
-        <v>0.8686</v>
+        <v>0.8597</v>
       </c>
       <c r="J47" s="15" t="n">
-        <v>-0.0055</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>-1.32</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>0.28</v>
       </c>
       <c r="L47" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M47" s="14" t="inlineStr">
